--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DE3778-2008-4642-9D5F-A41E635EE7B3}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AA399F-2385-4385-84CC-BBA8134E21D9}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-16170" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="168">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -515,6 +515,27 @@
   </si>
   <si>
     <t>Testing of increased bluff slope</t>
+  </si>
+  <si>
+    <t>The model seems stable. At least, the thaw depth seems stable. Freeze-up still happens too quickly, and we don't see slumping. The sediment transport directed onshore also seems too large.</t>
+  </si>
+  <si>
+    <t>I see some slumping, being limited by the erodible layer. This is awesome! Unfortunately, the onshore transport is still too large, and the slumped material is not really transported offshore.</t>
+  </si>
+  <si>
+    <t>val7_xb</t>
+  </si>
+  <si>
+    <t>Same as val6_xb, but now with increased threshold for frozen nodes when computing erodible surface</t>
+  </si>
+  <si>
+    <t>Same as val7_xb, but different dates to test hotstart</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>The hotstart problem was in the python toolbox, where hotstart is not yet added as a possible variable in the set_params function. The hotstart does seem to be working now.</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1021,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1050,6 +1073,7 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1103,6 +1127,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -1134,16 +1162,16 @@
     <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="t_start" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_end" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="description" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="_1" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_2" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="_1" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_2" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,7 +1506,8 @@
     <col min="2" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1527,698 +1556,698 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43838</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>44112</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>43831</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>44561</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>43831</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44561</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>43831</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44561</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>43831</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44561</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>40725</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>40817</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>40725</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>40817</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>40725</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>40817</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>40725</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>40817</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>40725</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>40817</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>40725</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>40817</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>43831</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>44561</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>43831</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>44561</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>40806</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>40817</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2226,1863 +2255,1871 @@
       <c r="A18" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>43831</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>44561</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>43831</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>44561</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>43831</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>44561</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44561</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40806</v>
+      </c>
+      <c r="C22" s="1">
+        <v>40817</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="1" t="s">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>18302</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>44111</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>43831</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>44197</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N50" s="1" t="s">
+      <c r="E50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N53" s="1" t="s">
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" t="s">
+        <v>79</v>
+      </c>
+      <c r="M53" t="s">
+        <v>79</v>
+      </c>
+      <c r="N53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N54" s="1" t="s">
+      <c r="E54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" t="s">
+        <v>79</v>
+      </c>
+      <c r="M55" t="s">
+        <v>79</v>
+      </c>
+      <c r="N55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" t="s">
+        <v>79</v>
+      </c>
+      <c r="N56" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>43831</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>73051</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N58" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N59" s="1" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" t="s">
+        <v>79</v>
+      </c>
+      <c r="L59" t="s">
+        <v>79</v>
+      </c>
+      <c r="M59" t="s">
+        <v>79</v>
+      </c>
+      <c r="N59" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" t="s">
+        <v>79</v>
+      </c>
+      <c r="M60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N62" s="1" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62" t="s">
+        <v>79</v>
+      </c>
+      <c r="N62" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" t="s">
+        <v>79</v>
+      </c>
+      <c r="L63" t="s">
+        <v>79</v>
+      </c>
+      <c r="M63" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" t="s">
         <v>79</v>
       </c>
     </row>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43AA399F-2385-4385-84CC-BBA8134E21D9}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6608922-8D71-43D0-A36E-0B61F1614210}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="171">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -536,13 +536,22 @@
   </si>
   <si>
     <t>The hotstart problem was in the python toolbox, where hotstart is not yet added as a possible variable in the set_params function. The hotstart does seem to be working now.</t>
+  </si>
+  <si>
+    <t>We see slumping and delayed freezup as a result from the increased node threshold. I also see that the October storm does not really affect the coast because of the timing being just after freeze-up! I do see some weird behaviour where enthalpy dispersal seems lower for some of the models, especially when the entire thing is around melting temperature.</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>Has all newest functionality (increased node threshold, hotstart), but used to test era5 data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +682,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1073,7 +1088,6 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1098,6 +1112,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1162,16 +1177,16 @@
     <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="t_start" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_end" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="description" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="_1" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_2" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="_1" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_2" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1496,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2383,7 +2398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -2400,7 +2415,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
         <v>79</v>
@@ -2473,12 +2488,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40806</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40817</v>
+      </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -4124,6 +4143,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6608922-8D71-43D0-A36E-0B61F1614210}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B646A81-BCFD-450B-AD47-C634A6A471F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="173">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>Has all newest functionality (increased node threshold, hotstart), but used to test era5 data</t>
+  </si>
+  <si>
+    <t>val8_xb</t>
+  </si>
+  <si>
+    <t>Same as val7_xb, but with skewness/asymmetry/… factor set to 0, to try to reduce onshore transport</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2532,12 +2538,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44561</v>
+      </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B646A81-BCFD-450B-AD47-C634A6A471F0}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAD9357-FF55-4C1E-B2F1-9289BEFAF05F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="175">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -550,7 +550,13 @@
     <t>val8_xb</t>
   </si>
   <si>
-    <t>Same as val7_xb, but with skewness/asymmetry/… factor set to 0, to try to reduce onshore transport</t>
+    <t>test_xb</t>
+  </si>
+  <si>
+    <t>Same as val8_xb, but shorter to test era5 storm data with Kees' water levels. Also included the new water level data in other parts of the model, such as the temperature computation. Also has higher friction value (0.02 instead of 0.01). Have not yet increased the critical bluff slope</t>
+  </si>
+  <si>
+    <t>Same as val7_xb, but with skewness/asymmetry/… factor set to 0, to try to reduce onshore transport. Also removed viscosity specification.</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2553,7 @@
         <v>44561</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
@@ -2582,12 +2588,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40806</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40817</v>
+      </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAD9357-FF55-4C1E-B2F1-9289BEFAF05F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77891D8F-AAED-4ACF-B048-30D5C9C464FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="179">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -550,13 +550,25 @@
     <t>val8_xb</t>
   </si>
   <si>
-    <t>test_xb</t>
-  </si>
-  <si>
     <t>Same as val8_xb, but shorter to test era5 storm data with Kees' water levels. Also included the new water level data in other parts of the model, such as the temperature computation. Also has higher friction value (0.02 instead of 0.01). Have not yet increased the critical bluff slope</t>
   </si>
   <si>
     <t>Same as val7_xb, but with skewness/asymmetry/… factor set to 0, to try to reduce onshore transport. Also removed viscosity specification.</t>
+  </si>
+  <si>
+    <t>val9_xb</t>
+  </si>
+  <si>
+    <t>test6 (re-run)</t>
+  </si>
+  <si>
+    <t>Increased wet &amp; dry slope, increased modelling depth</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>We see slumping followed by offshore transport!!! The offshore transport is currently strong enough to actually carry the material away from the bluff toe, and we see significant bluff retreat after 1 year. What's also interesting, is that for 2021, there are hardly any significant storms until well into september. The thawed material stays on the bluff, and insulates the deeper material. When a storm finally hits and transports the material offshore, it's too late into the season to see significant slumping. This leads to very little erosion that year.</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1058,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2514,8 +2529,8 @@
       <c r="E23" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
+      <c r="F23" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G23" t="s">
         <v>79</v>
@@ -2542,7 +2557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="203" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -2553,13 +2568,13 @@
         <v>44561</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
@@ -2588,22 +2603,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1">
         <v>40806</v>
       </c>
       <c r="C25" s="1">
-        <v>40817</v>
+        <v>40807</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
+      <c r="F25" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G25" t="s">
         <v>79</v>
@@ -2632,12 +2647,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44561</v>
+      </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
         <v>79</v>
@@ -2676,9 +2695,6 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
       <c r="E27" t="s">
         <v>79</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77891D8F-AAED-4ACF-B048-30D5C9C464FE}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43803FF-BD2A-4ED0-BF94-EC379E4C6838}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -562,13 +562,13 @@
     <t>test6 (re-run)</t>
   </si>
   <si>
-    <t>Increased wet &amp; dry slope, increased modelling depth</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>We see slumping followed by offshore transport!!! The offshore transport is currently strong enough to actually carry the material away from the bluff toe, and we see significant bluff retreat after 1 year. What's also interesting, is that for 2021, there are hardly any significant storms until well into september. The thawed material stays on the bluff, and insulates the deeper material. When a storm finally hits and transports the material offshore, it's too late into the season to see significant slumping. This leads to very little erosion that year.</t>
+  </si>
+  <si>
+    <t>Increased wet &amp; dry slope, increased modelling depth. Also needed to change time period which is being modelled, as Engelstad wave data does not cover the time period after 2019.</t>
   </si>
 </sst>
 </file>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,7 +2530,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>79</v>
@@ -2574,7 +2574,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
@@ -2618,7 +2618,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>79</v>
@@ -2650,13 +2650,13 @@
         <v>174</v>
       </c>
       <c r="B26" s="1">
-        <v>43831</v>
+        <v>43101</v>
       </c>
       <c r="C26" s="1">
-        <v>44561</v>
+        <v>43466</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
         <v>79</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43803FF-BD2A-4ED0-BF94-EC379E4C6838}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A0300C-49C1-41F2-99D0-97BC754442AE}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11265" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="181">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t>Increased wet &amp; dry slope, increased modelling depth. Also needed to change time period which is being modelled, as Engelstad wave data does not cover the time period after 2019.</t>
+  </si>
+  <si>
+    <t>val10_xb</t>
+  </si>
+  <si>
+    <t>Same as val9_xb, but higher grid resolution in concurrence with larger modelling depth</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1545,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2691,10 +2697,17 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
       <c r="E27" t="s">
         <v>79</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A0300C-49C1-41F2-99D0-97BC754442AE}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3BF261-E029-409B-B69F-E81154F06CE2}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11265" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="30855" yWindow="960" windowWidth="21600" windowHeight="11265" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Same as val9_xb, but higher grid resolution in concurrence with larger modelling depth</t>
+  </si>
+  <si>
+    <t>test7_xb</t>
+  </si>
+  <si>
+    <t>Same as val9_xb, but with new runup2% calculator to use as threshold for when to run xbeach</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="A28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2741,12 +2747,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40806</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40817</v>
+      </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3BF261-E029-409B-B69F-E81154F06CE2}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7C5EDC-BB00-463F-8244-3D6D143D356E}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="960" windowWidth="21600" windowHeight="11265" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="192">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -235,15 +235,9 @@
     <t>description</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>_1</t>
   </si>
   <si>
-    <t>_2</t>
-  </si>
-  <si>
     <t>_3</t>
   </si>
   <si>
@@ -581,6 +575,39 @@
   </si>
   <si>
     <t>Same as val9_xb, but with new runup2% calculator to use as threshold for when to run xbeach</t>
+  </si>
+  <si>
+    <t>Result interpretation</t>
+  </si>
+  <si>
+    <t>Run done?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>val11_xb</t>
+  </si>
+  <si>
+    <t>Don't remember</t>
+  </si>
+  <si>
+    <t>val_gt1</t>
+  </si>
+  <si>
+    <t>To validate the ground temperature model</t>
+  </si>
+  <si>
+    <t>The rate of change of the temperature seems good, implying the model runs fie. However, we do see that the temperature at lower depths is consistently too low, which might be due to initial conditions</t>
+  </si>
+  <si>
+    <t>val_gt2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>To validate the ground temperature model, but now with initial conditions that come directly from the data. Let's see if this works</t>
   </si>
 </sst>
 </file>
@@ -729,7 +756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,8 +936,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1058,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1070,7 +1127,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,6 +1136,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,6 +1190,11 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1148,10 +1216,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1213,19 +1277,19 @@
   <autoFilter ref="A1:N63" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="t_start" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_end" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="description" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="Column1" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="_1" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_2" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,2657 +1612,2636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="A28:N28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" customWidth="1"/>
     <col min="7" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C2" s="1">
+        <v>43838</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44112</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43838</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44112</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1">
         <v>43831</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>44561</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1">
         <v>43831</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>44561</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="1">
         <v>43831</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="1">
         <v>44561</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40725</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="1">
         <v>43831</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D15" s="1">
         <v>44561</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40806</v>
+      </c>
+      <c r="D17" s="1">
         <v>40817</v>
       </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="E17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="1">
+        <v>40806</v>
+      </c>
+      <c r="D22" s="1">
         <v>40817</v>
       </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="E22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="1">
+        <v>40806</v>
+      </c>
+      <c r="D23" s="1">
         <v>40817</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="E23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40806</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40807</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40806</v>
+      </c>
+      <c r="D28" s="1">
         <v>40817</v>
       </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="1">
-        <v>40725</v>
-      </c>
-      <c r="C14" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="1">
-        <v>40806</v>
-      </c>
-      <c r="C17" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="1">
-        <v>40806</v>
-      </c>
-      <c r="C22" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="1">
-        <v>40806</v>
-      </c>
-      <c r="C23" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="203" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44561</v>
-      </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="1">
-        <v>40806</v>
-      </c>
-      <c r="C25" s="1">
-        <v>40807</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43101</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="E28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D29" s="1">
         <v>43466</v>
       </c>
-      <c r="D26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43101</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43466</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="1">
-        <v>40806</v>
-      </c>
-      <c r="C28" s="1">
-        <v>40817</v>
-      </c>
-      <c r="D28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>79</v>
+      <c r="E29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>79</v>
+        <v>186</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40179</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D31" s="1">
+        <v>40813</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1">
-        <v>18302</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
+      <c r="E35" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="V35" s="8">
+        <v>18302</v>
+      </c>
+      <c r="W35" s="8">
+        <v>44111</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
-        <v>79</v>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>104</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
+      <c r="E38" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
+      <c r="E39" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>119</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>79</v>
+      <c r="E42" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V42" s="9">
+        <v>43831</v>
+      </c>
+      <c r="W42" s="9">
+        <v>44197</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
+      <c r="E44" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" t="s">
-        <v>79</v>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" t="s">
-        <v>79</v>
+      <c r="E46" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" t="s">
-        <v>79</v>
+      <c r="E47" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>131</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" t="s">
-        <v>79</v>
+      <c r="E48" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>133</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>79</v>
+      <c r="E49" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" t="s">
-        <v>79</v>
+      <c r="E50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>137</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" t="s">
-        <v>79</v>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>139</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" t="s">
-        <v>79</v>
+      <c r="E52" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>141</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" t="s">
-        <v>79</v>
+      <c r="E53" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" t="s">
-        <v>79</v>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>145</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" t="s">
-        <v>79</v>
+      <c r="E55" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" t="s">
-        <v>79</v>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43831</v>
-      </c>
-      <c r="C57" s="1">
-        <v>73051</v>
-      </c>
-      <c r="D57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>149</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" t="s">
-        <v>79</v>
+      <c r="E58" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V58" s="9">
+        <v>43831</v>
+      </c>
+      <c r="W58" s="9">
+        <v>73051</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
-        <v>79</v>
+      <c r="E59" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>151</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" t="s">
-        <v>79</v>
+      <c r="E60" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>152</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>79</v>
+      <c r="E61" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>153</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" t="s">
-        <v>79</v>
+      <c r="E62" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>154</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" t="s">
-        <v>79</v>
+      <c r="E63" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N63" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4216,14 +4259,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4231,12 +4274,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4250,7 +4293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4258,7 +4301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4278,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4286,22 +4329,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4309,7 +4352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4317,7 +4360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4328,7 +4371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4339,7 +4382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4356,7 +4399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4373,7 +4416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4381,232 +4424,232 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7C5EDC-BB00-463F-8244-3D6D143D356E}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75CE0C15-D6B7-46DE-86D2-CE6156EBCCB2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="194">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -604,10 +604,16 @@
     <t>val_gt2</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>To validate the ground temperature model, but now with initial conditions that come directly from the data. Let's see if this works</t>
+  </si>
+  <si>
+    <t>The model now predictions very similar temperatures for the ground temperature. I figured out the problem, see the notebook 'ground_temperature_validation.ipynb'. The next step is probably to look at initial conditions from ERA5.</t>
+  </si>
+  <si>
+    <t>test12_xb</t>
+  </si>
+  <si>
+    <t>Adapted from val_gt2, just to see model is still stable for longer time periods</t>
   </si>
 </sst>
 </file>
@@ -1136,12 +1142,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1190,11 +1196,6 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1219,6 +1220,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1279,17 +1285,17 @@
     <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,7 +1621,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,12 +2852,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C31" s="1">
         <v>40731</v>
@@ -2860,11 +2866,11 @@
         <v>40813</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G31" t="s">
         <v>77</v>
       </c>
@@ -2890,17 +2896,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" t="s">
-        <v>77</v>
+        <v>192</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41274</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75CE0C15-D6B7-46DE-86D2-CE6156EBCCB2}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7578BD95-FAFE-4FF1-8AF9-26BE00E7CF92}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="198">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -614,6 +614,18 @@
   </si>
   <si>
     <t>Adapted from val_gt2, just to see model is still stable for longer time periods</t>
+  </si>
+  <si>
+    <t>val_gt3</t>
+  </si>
+  <si>
+    <t>val_gt4</t>
+  </si>
+  <si>
+    <t>Same as val_gt2, but decreased nb_max (closer to surface) from 0.65 to 0.45</t>
+  </si>
+  <si>
+    <t>Same as val_gt2, but increased nb_max (closer to surface) from 0.65 to 0.85</t>
   </si>
 </sst>
 </file>
@@ -1620,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,21 +2952,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
-        <v>77</v>
+        <v>194</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40813</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" t="s">
         <v>77</v>
       </c>
@@ -2980,15 +2994,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40813</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" t="s">
         <v>77</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7578BD95-FAFE-4FF1-8AF9-26BE00E7CF92}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525E3CD6-063D-48C2-90DA-2735D5089C1C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="205">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -626,6 +626,27 @@
   </si>
   <si>
     <t>Same as val_gt2, but increased nb_max (closer to surface) from 0.65 to 0.85</t>
+  </si>
+  <si>
+    <t>val_gt5</t>
+  </si>
+  <si>
+    <t>val_gt6</t>
+  </si>
+  <si>
+    <t>Same as val_gt2, but increased k_soil_frozen_min and k_soil_unfrozen_min (closer to surface) from 0.7 and 0.6 to 1.2 and 1.1 respectively</t>
+  </si>
+  <si>
+    <t>Same as val_gt2, but increased k_soil_frozen_min and k_soil_unfrozen_min (closer to surface) from 0.7 and 0.6 to 1.7 and 1.6 respectively</t>
+  </si>
+  <si>
+    <t>Due to the decreased nb, there is indeed less heat required to jump phases, so the bumps occur earlier. However, the higher rho leads to a lower diffusion coefficient, so a longer adaptation time w.r.t. neighbouring cells.</t>
+  </si>
+  <si>
+    <t>Due to the increased nb, there is more heat required to jump phases, so the bumps occur later. However, the lower rho leads to a higher diffusion coefficient, so a shorter adaptation time w.r.t. neighbouring cells.</t>
+  </si>
+  <si>
+    <t>Both of these hardly influence temperature distribution at lower levels, since the main changes (w.r.t. parameters) occur at only the upper soil layers</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1166,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1160,6 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1632,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1666,9 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.42578125" customWidth="1"/>
-    <col min="7" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1982,7 +2006,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -1991,15 +2015,6 @@
         <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2023,25 +2038,16 @@
         <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
         <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2952,7 +2958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -2968,12 +2974,14 @@
       <c r="E33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="G33" t="s">
         <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
         <v>77</v>
@@ -2994,7 +3002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -3010,18 +3018,20 @@
       <c r="E34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="G34" t="s">
         <v>77</v>
       </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s">
-        <v>77</v>
+      <c r="H34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="K34" t="s">
         <v>77</v>
@@ -3036,11 +3046,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40813</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>77</v>
@@ -3082,11 +3102,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40813</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525E3CD6-063D-48C2-90DA-2735D5089C1C}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F7A1B4-2601-42DE-B4DB-AB47FD5EF4C2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="222">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -647,6 +647,57 @@
   </si>
   <si>
     <t>Both of these hardly influence temperature distribution at lower levels, since the main changes (w.r.t. parameters) occur at only the upper soil layers</t>
+  </si>
+  <si>
+    <t>Due to higher values for k, the bump occurs earlier, and the model thaws much easier. However, there is an immediate large bump right after thawing of the cell that I'm looking at, which is probably not desirable</t>
+  </si>
+  <si>
+    <t>Same as val_gt5, but even stronger effects</t>
+  </si>
+  <si>
+    <t>val_gt7</t>
+  </si>
+  <si>
+    <t>same as val_gt5, but also with decreased nb_max from 0.65 to 0.45 (like run val_gt3)</t>
+  </si>
+  <si>
+    <t>same as val_gt6, but also with decreased nb_max from 0.65 to 0.45 (like run val_gt3)</t>
+  </si>
+  <si>
+    <t>Both val_gt7 &amp; val_gt8 capture the initial increase in temperature quite well, but they tend to overshoot after reaching exceeding the latent heat threshold. Something I could do is decrease the diffusivity for unfrozen soils, to counter this. To this end, I will design val_gt9</t>
+  </si>
+  <si>
+    <t>val_gt8</t>
+  </si>
+  <si>
+    <t>val_gt9</t>
+  </si>
+  <si>
+    <t>The diffusivity of frozen soils should be higher, and unfrozen soils lower. To that end, the following parameters are adopted: nb_max=0.45; k_soil_frozen_min=1.7; k_soil_frozen_max=2.7; k_soil_unfrozen_min=0.6; k_soil_unfrozen_max=1.5</t>
+  </si>
+  <si>
+    <t>val_gt10</t>
+  </si>
+  <si>
+    <t>I'm still not quite happy with this, the overshooting still hapens and looks pretty bad. I'll decrease k_soil_unfrozen_min and k_soil_unfrozen_max further for run 10.</t>
+  </si>
+  <si>
+    <t>val_gt11</t>
+  </si>
+  <si>
+    <t>Same as val_gt10, but new inbetween mask formulation for k</t>
+  </si>
+  <si>
+    <t>There is still a big overshoot</t>
+  </si>
+  <si>
+    <t>val_gt12</t>
+  </si>
+  <si>
+    <t>Same as val_gt11, but with nb_max and nb_min decreased further to 0.25</t>
+  </si>
+  <si>
+    <t>There is no longer that large overshoot, but the bumps do occur later. The model also performs a little bit better at depths of 1m and 2m and 2.95m. Let's see what happens if I decrease nb further.</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,7 +3097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -3063,13 +3114,13 @@
         <v>200</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
         <v>77</v>
@@ -3119,19 +3170,19 @@
         <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
       </c>
-      <c r="H36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s">
-        <v>77</v>
+      <c r="H36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s">
         <v>77</v>
@@ -3154,14 +3205,24 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D37" s="1">
+        <v>40813</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>208</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -3196,14 +3257,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D38" s="1">
+        <v>40813</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -3238,14 +3309,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D39" s="1">
+        <v>40813</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -3280,14 +3361,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D40" s="1">
+        <v>40813</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -3322,14 +3413,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40813</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -3364,11 +3465,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D42" s="1">
+        <v>40813</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F7A1B4-2601-42DE-B4DB-AB47FD5EF4C2}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64DE55B9-1F35-4C86-A158-BEC160A4C127}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="225">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -698,6 +698,15 @@
   </si>
   <si>
     <t>There is no longer that large overshoot, but the bumps do occur later. The model also performs a little bit better at depths of 1m and 2m and 2.95m. Let's see what happens if I decrease nb further.</t>
+  </si>
+  <si>
+    <t>val_gt13</t>
+  </si>
+  <si>
+    <t>Same as val_gt9, but with new flux factors for surface heat flux</t>
+  </si>
+  <si>
+    <t>Bumps occur later. The reduced surface heat flux does seem to influence heat intrusion in the soil upper layers, and helps to keep the large overshoot at the surface in check. Perhaps I should look at different discretizations?</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,14 +3530,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1">
+        <v>40731</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40813</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64DE55B9-1F35-4C86-A158-BEC160A4C127}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87489431-397C-4C80-8BDA-F1C60029AA2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="226">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -673,9 +673,6 @@
     <t>val_gt9</t>
   </si>
   <si>
-    <t>The diffusivity of frozen soils should be higher, and unfrozen soils lower. To that end, the following parameters are adopted: nb_max=0.45; k_soil_frozen_min=1.7; k_soil_frozen_max=2.7; k_soil_unfrozen_min=0.6; k_soil_unfrozen_max=1.5</t>
-  </si>
-  <si>
     <t>val_gt10</t>
   </si>
   <si>
@@ -707,6 +704,12 @@
   </si>
   <si>
     <t>Bumps occur later. The reduced surface heat flux does seem to influence heat intrusion in the soil upper layers, and helps to keep the large overshoot at the surface in check. Perhaps I should look at different discretizations?</t>
+  </si>
+  <si>
+    <t>The diffusivity of frozen soils should be higher, and unfrozen soils lower. To that end, the following parameters are adopted: nb_max=0.45; nb_min=0.45; k_soil_frozen_min=1.7; k_soil_frozen_max=2.7; k_soil_unfrozen_min=0.6; k_soil_unfrozen_max=1.5</t>
+  </si>
+  <si>
+    <t>The diffusivity of frozen soils should be higher, and unfrozen soils lower. To that end, the following parameters are adopted: nb_max=0.45; k_soil_frozen_min=1.7; k_soil_frozen_max=2.7; k_soil_unfrozen_min=0.3; k_soil_unfrozen_max=0.6</t>
   </si>
 </sst>
 </file>
@@ -1714,25 +1717,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="65.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" customWidth="1"/>
     <col min="7" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="134.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>207</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -3332,10 +3335,10 @@
         <v>40813</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -3370,9 +3373,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>183</v>
@@ -3384,10 +3387,10 @@
         <v>40813</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -3422,9 +3425,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>183</v>
@@ -3436,10 +3439,10 @@
         <v>40813</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -3474,9 +3477,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>183</v>
@@ -3488,7 +3491,7 @@
         <v>40813</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>77</v>
@@ -3530,9 +3533,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>183</v>
@@ -3544,10 +3547,10 @@
         <v>40813</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -3582,7 +3585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="2" t="s">
@@ -3624,7 +3627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="2" t="s">
@@ -3666,7 +3669,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="E46" s="2" t="s">
@@ -3708,7 +3711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="2" t="s">
@@ -3750,7 +3753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="E48" s="2" t="s">
@@ -3792,7 +3795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="2" t="s">
@@ -3834,7 +3837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" s="2" t="s">
@@ -3876,7 +3879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="2" t="s">
@@ -3918,7 +3921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="E52" s="2" t="s">
@@ -3960,7 +3963,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="2" t="s">
@@ -4002,7 +4005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="2" t="s">
@@ -4044,7 +4047,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="2" t="s">
@@ -4086,7 +4089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="2" t="s">
@@ -4128,7 +4131,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="2" t="s">
@@ -4170,7 +4173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="2" t="s">
@@ -4216,7 +4219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="E59" s="2" t="s">
@@ -4258,7 +4261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="2" t="s">
@@ -4300,7 +4303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="2" t="s">
@@ -4342,7 +4345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="2" t="s">
@@ -4384,7 +4387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="E63" s="2" t="s">
@@ -4426,7 +4429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
       <c r="U64" s="4" t="s">
         <v>152</v>
       </c>
@@ -4451,14 +4454,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4466,12 +4469,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4521,22 +4524,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4616,232 +4619,232 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87489431-397C-4C80-8BDA-F1C60029AA2A}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A881A6CD-3969-48C3-84A6-26817FA2763F}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="228">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -710,6 +710,12 @@
   </si>
   <si>
     <t>The diffusivity of frozen soils should be higher, and unfrozen soils lower. To that end, the following parameters are adopted: nb_max=0.45; k_soil_frozen_min=1.7; k_soil_frozen_max=2.7; k_soil_unfrozen_min=0.3; k_soil_unfrozen_max=0.6</t>
+  </si>
+  <si>
+    <t>val_gt14</t>
+  </si>
+  <si>
+    <t>This run uses the following parameters: nb_min=0.45, nb_max=0.45, nb_min_depth=1.5, nb_max_depth=0.5, k_soil_frozen_min=1.7, k_soil_frozen_max=2.7, k_soil_unfrozen_min=0.3, k_soil_unfrozen_max=0.6, depth_constant_k=1. Furthermore, the flux_factor for surface heat flux is turned off. Basically, I'm running this simulation of 1 year in length 10 times consecutively, to see when I get rid of the initial conditions. I'm using the initial conditions from era5, because I'm starting in the winter now.  I am using the settings from the run so far with the best RMSE, which is val_gt11.</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1354,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -1717,25 +1719,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="65.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" customWidth="1"/>
     <col min="7" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="134.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="134.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2318,7 +2320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>207</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>218</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -3585,15 +3587,23 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40909</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" t="s">
         <v>77</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="2" t="s">
@@ -3669,7 +3679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="E46" s="2" t="s">
@@ -3711,7 +3721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="2" t="s">
@@ -3753,7 +3763,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="E48" s="2" t="s">
@@ -3795,7 +3805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="2" t="s">
@@ -3837,7 +3847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" s="2" t="s">
@@ -3879,7 +3889,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="2" t="s">
@@ -3921,7 +3931,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="E52" s="2" t="s">
@@ -3963,7 +3973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="2" t="s">
@@ -4005,7 +4015,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="2" t="s">
@@ -4047,7 +4057,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="2" t="s">
@@ -4089,7 +4099,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="2" t="s">
@@ -4131,7 +4141,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="2" t="s">
@@ -4173,7 +4183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="2" t="s">
@@ -4219,7 +4229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="E59" s="2" t="s">
@@ -4261,7 +4271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="2" t="s">
@@ -4303,7 +4313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="2" t="s">
@@ -4345,7 +4355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="2" t="s">
@@ -4387,7 +4397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="E63" s="2" t="s">
@@ -4429,7 +4439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="U64" s="4" t="s">
         <v>152</v>
       </c>
@@ -4454,14 +4464,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4469,12 +4479,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4524,22 +4534,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4547,7 +4557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4555,7 +4565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4619,232 +4629,232 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A881A6CD-3969-48C3-84A6-26817FA2763F}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0BDDBA-607A-4661-A787-2CF49423B6D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="230">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>This run uses the following parameters: nb_min=0.45, nb_max=0.45, nb_min_depth=1.5, nb_max_depth=0.5, k_soil_frozen_min=1.7, k_soil_frozen_max=2.7, k_soil_unfrozen_min=0.3, k_soil_unfrozen_max=0.6, depth_constant_k=1. Furthermore, the flux_factor for surface heat flux is turned off. Basically, I'm running this simulation of 1 year in length 10 times consecutively, to see when I get rid of the initial conditions. I'm using the initial conditions from era5, because I'm starting in the winter now.  I am using the settings from the run so far with the best RMSE, which is val_gt11.</t>
+  </si>
+  <si>
+    <t>val_gt15</t>
+  </si>
+  <si>
+    <t>Same as val_gt14, but with new formulation for initial conditions where the IC's are constructed as a linear combination of era5 data. With this run, I can see how this formulation affects spin-up time.</t>
   </si>
 </sst>
 </file>
@@ -1354,6 +1360,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -1719,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,11 +3647,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40909</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0BDDBA-607A-4661-A787-2CF49423B6D8}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C52457-9FCC-45D0-9C07-AF4255B6B183}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="240">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -722,6 +722,36 @@
   </si>
   <si>
     <t>Same as val_gt14, but with new formulation for initial conditions where the IC's are constructed as a linear combination of era5 data. With this run, I can see how this formulation affects spin-up time.</t>
+  </si>
+  <si>
+    <t>show_1</t>
+  </si>
+  <si>
+    <t>val13_xb</t>
+  </si>
+  <si>
+    <t>This simulation uses all the newest stuff, but doesn't use a spin-up period. Xbeach is active. This run was meant to be shown during my midterm presentation at USGS, but fell through due to long simulation time and other mistakes</t>
+  </si>
+  <si>
+    <t>This run is used to test the current implementation and whether or not it still works with Xbeach. I also want to see if my new animation strategy works</t>
+  </si>
+  <si>
+    <t>val_gt16</t>
+  </si>
+  <si>
+    <t>val_gt17</t>
+  </si>
+  <si>
+    <t>Same as val_gt15, but new k_distribution, where k_soil_frozen_max is increased further, from 2.7 to 3.7. There are also more output points (i.e. at more different depths).</t>
+  </si>
+  <si>
+    <t>Same as val_gt15, but different time period to look at other dataset from Li. There are also more output points (i.e. at more different depths).</t>
+  </si>
+  <si>
+    <t>val_gt18</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but k_soil_frozen_max is increased from 2.7 to 3.7.</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,11 +3729,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40909</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -3741,11 +3781,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40909</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>77</v>
@@ -3783,11 +3833,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40909</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>77</v>
@@ -3825,11 +3885,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42736</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>77</v>
@@ -3867,11 +3937,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42736</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>77</v>
@@ -3909,8 +3989,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="E51" s="2" t="s">
         <v>77</v>
@@ -3951,7 +4033,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="E52" s="2" t="s">
@@ -3993,7 +4075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="2" t="s">
@@ -4035,7 +4117,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="2" t="s">
@@ -4077,7 +4159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="2" t="s">
@@ -4119,7 +4201,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="2" t="s">
@@ -4161,7 +4243,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="E57" s="2" t="s">
@@ -4203,7 +4285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="2" t="s">
@@ -4249,7 +4331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="E59" s="2" t="s">
@@ -4291,7 +4373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="2" t="s">
@@ -4333,7 +4415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="2" t="s">
@@ -4375,7 +4457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="2" t="s">
@@ -4417,7 +4499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="E63" s="2" t="s">
@@ -4459,7 +4541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U64" s="4" t="s">
         <v>152</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C52457-9FCC-45D0-9C07-AF4255B6B183}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C434C74-AD84-45B7-BD84-B7A118020583}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'overview_runs (2)'!$A$1:$N$63</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="248">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -752,6 +765,30 @@
   </si>
   <si>
     <t>Same as val_gt17, but k_soil_frozen_max is increased from 2.7 to 3.7.</t>
+  </si>
+  <si>
+    <t>Something very weird is happening at the end of the season. A bar is forming, but why? Ask tomorrow during meeting.</t>
+  </si>
+  <si>
+    <t>This interpretation holds mostly for both val_gt17 and val_gt18. At the surface, the model predicts too high temperatures. There's really no way around it. Even at 25 and 50 cm depth, predictions are much too high. I should thus decrease the heat influx. Then, at a depth of 100cm, the model performs pretty well. At 150 - 275 cm depth, the model has a very similar temperature gradient, but the temperature rise occurs later in the season, which is weird, because the rate of increase seems correct. At 325 - 425 cm depth, the model behaviour is really inaccurate. The gradient is off, as well as predicted temperatures in general. I assum the initial conditions are still too important here, even though the model was ran for 10 years.</t>
+  </si>
+  <si>
+    <t>val_gt19</t>
+  </si>
+  <si>
+    <t>val_gt20</t>
+  </si>
+  <si>
+    <t>val_gt21</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but modelling depth changed from 15m to 5m (same resolution, so number of nodes decreased from 150 to 50)</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but modelling depth changed from 15m to 10m (same resolution, so number of nodes decreased from 150 to 100).</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but modelling resolution changed from 150 over 15m, to 75 over 15m, and dt from 2 to 8 seconds</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,7 +3835,7 @@
         <v>233</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -3937,7 +3974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -3954,7 +3991,7 @@
         <v>239</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -3989,13 +4026,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>242</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42736</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>77</v>
@@ -4033,11 +4078,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+    <row r="52" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42736</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>77</v>
@@ -4075,11 +4130,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+    <row r="53" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42736</v>
+      </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>77</v>
@@ -4207,9 +4272,7 @@
       <c r="E56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" t="s">
         <v>77</v>
       </c>
@@ -4379,9 +4442,7 @@
       <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" t="s">
         <v>77</v>
       </c>
@@ -4564,7 +4625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443E9100-60AD-456C-876B-5040F4869951}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C434C74-AD84-45B7-BD84-B7A118020583}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E5D621-A0F9-4DC4-A1B4-678A782AF8B7}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="257">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -767,9 +767,6 @@
     <t>Same as val_gt17, but k_soil_frozen_max is increased from 2.7 to 3.7.</t>
   </si>
   <si>
-    <t>Something very weird is happening at the end of the season. A bar is forming, but why? Ask tomorrow during meeting.</t>
-  </si>
-  <si>
     <t>This interpretation holds mostly for both val_gt17 and val_gt18. At the surface, the model predicts too high temperatures. There's really no way around it. Even at 25 and 50 cm depth, predictions are much too high. I should thus decrease the heat influx. Then, at a depth of 100cm, the model performs pretty well. At 150 - 275 cm depth, the model has a very similar temperature gradient, but the temperature rise occurs later in the season, which is weird, because the rate of increase seems correct. At 325 - 425 cm depth, the model behaviour is really inaccurate. The gradient is off, as well as predicted temperatures in general. I assum the initial conditions are still too important here, even though the model was ran for 10 years.</t>
   </si>
   <si>
@@ -789,6 +786,36 @@
   </si>
   <si>
     <t>Same as val_gt17, but modelling resolution changed from 150 over 15m, to 75 over 15m, and dt from 2 to 8 seconds</t>
+  </si>
+  <si>
+    <t>There are barely any differences for shallower depths, even after longer time periods. At least, I don't see any. At larger depths, the model consistently predicts a higher temperature compared to val_gt17, especially after a few years, but this difference decreases with time as well, reaching a maximum after about 5 years. After 10 years, this difference doesn't even amount to 0.5 degrees.</t>
+  </si>
+  <si>
+    <t>The model predicts higher temperatures for intermediate depths, say 100cm to 250 cm. When looking deeper, the peak temperature is much higher especially, which seems to indicate that the memory effect is decreased. This makes sense, as the modelling depth is lower and there isn't as much 'cold storage'.</t>
+  </si>
+  <si>
+    <t>At depths &gt;=100 cm, the lower resolution barely makes a difference. Looking above that, the general trends are still the same, and the thawing process actually seems a bit easier. Of course, differences also occur due to the grid resolution not overlapping with the output resolution.</t>
+  </si>
+  <si>
+    <t>val14_xb</t>
+  </si>
+  <si>
+    <t>The animation stuff works. Something very weird is happening at the end of the season. A bar is forming, but why? Ask tomorrow during meeting.</t>
+  </si>
+  <si>
+    <t>Same as run val13_xb, but removed the wave direction parameter.</t>
+  </si>
+  <si>
+    <t>val_gt22</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but increase subgrid timestep to 8s and artificially remove CFL check, just to see if this thing remains stable</t>
+  </si>
+  <si>
+    <t>val_gt23</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but increase subgrid timestep to 36s and artificially remove CFL check, just to see if this thing remains stable</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3862,7 @@
         <v>233</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -3991,7 +4018,7 @@
         <v>239</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -4026,9 +4053,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>183</v>
@@ -4040,10 +4067,10 @@
         <v>42736</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -4078,9 +4105,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>183</v>
@@ -4092,10 +4119,10 @@
         <v>42736</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -4130,9 +4157,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>183</v>
@@ -4144,10 +4171,10 @@
         <v>42736</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -4183,10 +4210,20 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D54" s="1">
+        <v>40909</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>77</v>
@@ -4224,11 +4261,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+    <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42736</v>
+      </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>77</v>
@@ -4266,11 +4313,21 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42736</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s">

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E5D621-A0F9-4DC4-A1B4-678A782AF8B7}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC92870-D100-45AD-B16E-AA3A4D3AF543}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="260">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -816,6 +816,15 @@
   </si>
   <si>
     <t>Same as val_gt17, but increase subgrid timestep to 36s and artificially remove CFL check, just to see if this thing remains stable</t>
+  </si>
+  <si>
+    <t>A timestep of 36 seconds is still completely fine…</t>
+  </si>
+  <si>
+    <t>cal_gt1 - cal_gt81</t>
+  </si>
+  <si>
+    <t>Same as val_gt17, but with varying values for k_soil_frozen [0.7, 1.7, 2.7], k_soil_unfrozen [0.6, 1.05, 1.5], nb [0.45, 0.55, 0.65], flux_factor [1, 0.8, 0.7], and with a thermal subgrid timestep of 36 seconds</t>
   </si>
 </sst>
 </file>
@@ -1824,12 +1833,12 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -4329,7 +4338,9 @@
       <c r="E56" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="G56" t="s">
         <v>77</v>
       </c>
@@ -4363,11 +4374,21 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D57" s="1">
+        <v>42736</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC92870-D100-45AD-B16E-AA3A4D3AF543}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F83606-DF1E-47D9-8DF6-347E17A4A120}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="263">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -825,6 +825,15 @@
   </si>
   <si>
     <t>Same as val_gt17, but with varying values for k_soil_frozen [0.7, 1.7, 2.7], k_soil_unfrozen [0.6, 1.05, 1.5], nb [0.45, 0.55, 0.65], flux_factor [1, 0.8, 0.7], and with a thermal subgrid timestep of 36 seconds</t>
+  </si>
+  <si>
+    <t>val_gt24</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Same parameter settings as the best run from cal_gt1 - cal_gt81, which is run … . The following parameter settings are used: k_soil_frozen [...], k_soil_unfrozen [...], nb [...], flux_factor [...], and with a thermal subgrid timestep of 36 seconds. Furthermore, the simulation is now done for 2011, and again repeated 10 times.</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -4426,11 +4435,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D58" s="1">
+        <v>40909</v>
+      </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>77</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F83606-DF1E-47D9-8DF6-347E17A4A120}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC0B5B2-8D0E-488B-9324-5BB87B344B7D}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="268">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -494,9 +494,6 @@
     <t>fut2</t>
   </si>
   <si>
-    <t>fut3</t>
-  </si>
-  <si>
     <t>fut4</t>
   </si>
   <si>
@@ -833,7 +830,25 @@
     <t>No</t>
   </si>
   <si>
-    <t>Same parameter settings as the best run from cal_gt1 - cal_gt81, which is run … . The following parameter settings are used: k_soil_frozen [...], k_soil_unfrozen [...], nb [...], flux_factor [...], and with a thermal subgrid timestep of 36 seconds. Furthermore, the simulation is now done for 2011, and again repeated 10 times.</t>
+    <t>test8_xb</t>
+  </si>
+  <si>
+    <t>Used to test remote desktops</t>
+  </si>
+  <si>
+    <t>val_per1</t>
+  </si>
+  <si>
+    <t>Used to validate the first period of the integrated thermo-morphological model</t>
+  </si>
+  <si>
+    <t>val15_xb</t>
+  </si>
+  <si>
+    <t>Same as run val14_xb, but fixed the dynamic xgrid (i.e., xgrid is constant now)</t>
+  </si>
+  <si>
+    <t>Same parameter settings as the best run from cal_gt1 - cal_gt81, which is run cal_gt61 . The following parameter settings are used: k_soil_frozen [2.7], k_soil_unfrozen [0.6], nb [0.65], flux_factor [1], and with a thermal subgrid timestep of 36 seconds. Furthermore, the simulation is now done for 2011, and again repeated 10 times.</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1857,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1879,7 @@
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -1876,7 +1891,7 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
         <v>67</v>
@@ -1980,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1">
         <v>43831</v>
@@ -2021,7 +2036,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1">
         <v>43831</v>
@@ -2062,7 +2077,7 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1">
         <v>43831</v>
@@ -2103,7 +2118,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1">
         <v>43831</v>
@@ -2178,7 +2193,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1">
         <v>40725</v>
@@ -2210,7 +2225,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="1">
         <v>40725</v>
@@ -2242,7 +2257,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1">
         <v>40725</v>
@@ -2283,7 +2298,7 @@
         <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1">
         <v>40725</v>
@@ -2324,7 +2339,7 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1">
         <v>40725</v>
@@ -2365,7 +2380,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1">
         <v>40725</v>
@@ -2406,7 +2421,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1">
         <v>43831</v>
@@ -2447,7 +2462,7 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1">
         <v>43831</v>
@@ -2488,7 +2503,7 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1">
         <v>40806</v>
@@ -2526,10 +2541,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="1">
         <v>43831</v>
@@ -2538,7 +2553,7 @@
         <v>44561</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>77</v>
@@ -2567,10 +2582,10 @@
     </row>
     <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1">
         <v>43831</v>
@@ -2579,10 +2594,10 @@
         <v>44561</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
         <v>77</v>
@@ -2608,10 +2623,10 @@
     </row>
     <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1">
         <v>43831</v>
@@ -2620,10 +2635,10 @@
         <v>44561</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
@@ -2649,10 +2664,10 @@
     </row>
     <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="1">
         <v>43831</v>
@@ -2661,10 +2676,10 @@
         <v>44561</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
         <v>77</v>
@@ -2690,10 +2705,10 @@
     </row>
     <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1">
         <v>40806</v>
@@ -2702,10 +2717,10 @@
         <v>40817</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
@@ -2731,10 +2746,10 @@
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1">
         <v>40806</v>
@@ -2743,10 +2758,10 @@
         <v>40817</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
         <v>77</v>
@@ -2772,10 +2787,10 @@
     </row>
     <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1">
         <v>43831</v>
@@ -2784,10 +2799,10 @@
         <v>44561</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
         <v>77</v>
@@ -2813,10 +2828,10 @@
     </row>
     <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1">
         <v>40806</v>
@@ -2825,10 +2840,10 @@
         <v>40807</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s">
         <v>77</v>
@@ -2854,10 +2869,10 @@
     </row>
     <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="1">
         <v>43101</v>
@@ -2866,7 +2881,7 @@
         <v>43466</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>77</v>
@@ -2895,10 +2910,10 @@
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1">
         <v>43101</v>
@@ -2907,7 +2922,7 @@
         <v>43466</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>77</v>
@@ -2936,10 +2951,10 @@
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1">
         <v>40806</v>
@@ -2948,7 +2963,7 @@
         <v>40817</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>77</v>
@@ -2977,10 +2992,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1">
         <v>42736</v>
@@ -2989,7 +3004,7 @@
         <v>43466</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -3018,10 +3033,10 @@
     </row>
     <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1">
         <v>40179</v>
@@ -3030,10 +3045,10 @@
         <v>40909</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -3059,10 +3074,10 @@
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1">
         <v>40731</v>
@@ -3071,10 +3086,10 @@
         <v>40813</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -3103,10 +3118,10 @@
     </row>
     <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="1">
         <v>40544</v>
@@ -3115,7 +3130,7 @@
         <v>41274</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>77</v>
@@ -3147,10 +3162,10 @@
     </row>
     <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1">
         <v>40731</v>
@@ -3159,10 +3174,10 @@
         <v>40813</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -3191,10 +3206,10 @@
     </row>
     <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="1">
         <v>40731</v>
@@ -3203,10 +3218,10 @@
         <v>40813</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -3218,7 +3233,7 @@
         <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s">
         <v>77</v>
@@ -3235,10 +3250,10 @@
     </row>
     <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="1">
         <v>40731</v>
@@ -3247,10 +3262,10 @@
         <v>40813</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -3291,10 +3306,10 @@
     </row>
     <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="1">
         <v>40731</v>
@@ -3303,10 +3318,10 @@
         <v>40813</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -3318,7 +3333,7 @@
         <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s">
         <v>77</v>
@@ -3343,10 +3358,10 @@
     </row>
     <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1">
         <v>40731</v>
@@ -3355,10 +3370,10 @@
         <v>40813</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -3395,10 +3410,10 @@
     </row>
     <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="1">
         <v>40731</v>
@@ -3407,10 +3422,10 @@
         <v>40813</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -3447,10 +3462,10 @@
     </row>
     <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" s="1">
         <v>40731</v>
@@ -3459,10 +3474,10 @@
         <v>40813</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -3499,10 +3514,10 @@
     </row>
     <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="1">
         <v>40731</v>
@@ -3511,10 +3526,10 @@
         <v>40813</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -3551,10 +3566,10 @@
     </row>
     <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="1">
         <v>40731</v>
@@ -3563,10 +3578,10 @@
         <v>40813</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -3603,10 +3618,10 @@
     </row>
     <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1">
         <v>40731</v>
@@ -3615,7 +3630,7 @@
         <v>40813</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>77</v>
@@ -3659,10 +3674,10 @@
     </row>
     <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="1">
         <v>40731</v>
@@ -3671,10 +3686,10 @@
         <v>40813</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -3711,10 +3726,10 @@
     </row>
     <row r="44" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1">
         <v>40544</v>
@@ -3723,7 +3738,7 @@
         <v>40909</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
@@ -3761,10 +3776,10 @@
     </row>
     <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1">
         <v>40544</v>
@@ -3773,7 +3788,7 @@
         <v>40909</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>77</v>
@@ -3813,10 +3828,10 @@
     </row>
     <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" s="1">
         <v>40544</v>
@@ -3825,7 +3840,7 @@
         <v>40909</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -3865,10 +3880,10 @@
     </row>
     <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" s="1">
         <v>40544</v>
@@ -3877,10 +3892,10 @@
         <v>40909</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -3917,10 +3932,10 @@
     </row>
     <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="1">
         <v>40544</v>
@@ -3929,7 +3944,7 @@
         <v>40909</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>77</v>
@@ -3969,10 +3984,10 @@
     </row>
     <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" s="1">
         <v>42370</v>
@@ -3981,7 +3996,7 @@
         <v>42736</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>77</v>
@@ -4021,10 +4036,10 @@
     </row>
     <row r="50" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" s="1">
         <v>42370</v>
@@ -4033,10 +4048,10 @@
         <v>42736</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -4073,10 +4088,10 @@
     </row>
     <row r="51" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1">
         <v>42370</v>
@@ -4085,10 +4100,10 @@
         <v>42736</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -4125,10 +4140,10 @@
     </row>
     <row r="52" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="1">
         <v>42370</v>
@@ -4137,10 +4152,10 @@
         <v>42736</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -4177,10 +4192,10 @@
     </row>
     <row r="53" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="1">
         <v>42370</v>
@@ -4189,10 +4204,10 @@
         <v>42736</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -4229,10 +4244,10 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="1">
         <v>40544</v>
@@ -4241,7 +4256,7 @@
         <v>40909</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>77</v>
@@ -4281,10 +4296,10 @@
     </row>
     <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1">
         <v>42370</v>
@@ -4293,7 +4308,7 @@
         <v>42736</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>77</v>
@@ -4333,10 +4348,10 @@
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1">
         <v>42370</v>
@@ -4345,10 +4360,10 @@
         <v>42736</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -4385,10 +4400,10 @@
     </row>
     <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1">
         <v>42370</v>
@@ -4397,7 +4412,7 @@
         <v>42736</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>77</v>
@@ -4437,10 +4452,10 @@
     </row>
     <row r="58" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C58" s="1">
         <v>40544</v>
@@ -4449,7 +4464,7 @@
         <v>40909</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>77</v>
@@ -4492,10 +4507,20 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="1">
+        <v>40744</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40745</v>
+      </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>77</v>
@@ -4533,11 +4558,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>263</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s">
@@ -4573,11 +4601,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+    <row r="61" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40909</v>
+      </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>77</v>
@@ -4606,13 +4644,13 @@
       <c r="N61" t="s">
         <v>77</v>
       </c>
-      <c r="U61" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="7" t="s">
-        <v>77</v>
+      <c r="U61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -4649,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -4691,7 +4729,7 @@
         <v>77</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
@@ -4701,7 +4739,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U64" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC0B5B2-8D0E-488B-9324-5BB87B344B7D}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C7E35A9-C74A-473E-9304-C8B2A4A88581}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="272">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -491,9 +491,6 @@
     <t>fut1</t>
   </si>
   <si>
-    <t>fut2</t>
-  </si>
-  <si>
     <t>fut4</t>
   </si>
   <si>
@@ -836,19 +833,34 @@
     <t>Used to test remote desktops</t>
   </si>
   <si>
-    <t>val_per1</t>
-  </si>
-  <si>
     <t>Used to validate the first period of the integrated thermo-morphological model</t>
   </si>
   <si>
     <t>val15_xb</t>
   </si>
   <si>
-    <t>Same as run val14_xb, but fixed the dynamic xgrid (i.e., xgrid is constant now)</t>
-  </si>
-  <si>
     <t>Same parameter settings as the best run from cal_gt1 - cal_gt81, which is run cal_gt61 . The following parameter settings are used: k_soil_frozen [2.7], k_soil_unfrozen [0.6], nb [0.65], flux_factor [1], and with a thermal subgrid timestep of 36 seconds. Furthermore, the simulation is now done for 2011, and again repeated 10 times.</t>
+  </si>
+  <si>
+    <t>val_per1_1</t>
+  </si>
+  <si>
+    <t>Same as run val14_xb, but fixed the dynamic xgrid</t>
+  </si>
+  <si>
+    <t>val_per2_1</t>
+  </si>
+  <si>
+    <t>val_per3_1</t>
+  </si>
+  <si>
+    <t>Used to validate the second period of the integrated thermo-morphological model</t>
+  </si>
+  <si>
+    <t>Used to validate the third period of the integrated thermo-morphological model</t>
+  </si>
+  <si>
+    <t>The period I'm looking at with the erosion data falls within these periods, and for each simulation, starts somewhere in July / August. To account for spin up time, the simulation is ran from the start of the year (January 1st) regardless.</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1380,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1384,6 +1396,12 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1854,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1897,7 @@
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -1891,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
         <v>67</v>
@@ -1995,7 +2013,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1">
         <v>43831</v>
@@ -2036,7 +2054,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>43831</v>
@@ -2077,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1">
         <v>43831</v>
@@ -2118,7 +2136,7 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1">
         <v>43831</v>
@@ -2193,7 +2211,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1">
         <v>40725</v>
@@ -2225,7 +2243,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1">
         <v>40725</v>
@@ -2257,7 +2275,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1">
         <v>40725</v>
@@ -2298,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1">
         <v>40725</v>
@@ -2339,7 +2357,7 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1">
         <v>40725</v>
@@ -2380,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1">
         <v>40725</v>
@@ -2421,7 +2439,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1">
         <v>43831</v>
@@ -2462,7 +2480,7 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1">
         <v>43831</v>
@@ -2503,7 +2521,7 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1">
         <v>40806</v>
@@ -2541,10 +2559,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1">
         <v>43831</v>
@@ -2553,7 +2571,7 @@
         <v>44561</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>77</v>
@@ -2582,10 +2600,10 @@
     </row>
     <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1">
         <v>43831</v>
@@ -2594,10 +2612,10 @@
         <v>44561</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" t="s">
         <v>77</v>
@@ -2623,10 +2641,10 @@
     </row>
     <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="1">
         <v>43831</v>
@@ -2635,10 +2653,10 @@
         <v>44561</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
@@ -2664,10 +2682,10 @@
     </row>
     <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1">
         <v>43831</v>
@@ -2676,10 +2694,10 @@
         <v>44561</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
         <v>77</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1">
         <v>40806</v>
@@ -2717,10 +2735,10 @@
         <v>40817</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
@@ -2746,10 +2764,10 @@
     </row>
     <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1">
         <v>40806</v>
@@ -2758,10 +2776,10 @@
         <v>40817</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
         <v>77</v>
@@ -2787,10 +2805,10 @@
     </row>
     <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1">
         <v>43831</v>
@@ -2799,10 +2817,10 @@
         <v>44561</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24" t="s">
         <v>77</v>
@@ -2828,10 +2846,10 @@
     </row>
     <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="1">
         <v>40806</v>
@@ -2840,10 +2858,10 @@
         <v>40807</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
         <v>77</v>
@@ -2869,10 +2887,10 @@
     </row>
     <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1">
         <v>43101</v>
@@ -2881,7 +2899,7 @@
         <v>43466</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>77</v>
@@ -2910,10 +2928,10 @@
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1">
         <v>43101</v>
@@ -2922,7 +2940,7 @@
         <v>43466</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>77</v>
@@ -2951,10 +2969,10 @@
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1">
         <v>40806</v>
@@ -2963,7 +2981,7 @@
         <v>40817</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>77</v>
@@ -2992,10 +3010,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1">
         <v>42736</v>
@@ -3004,7 +3022,7 @@
         <v>43466</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -3033,10 +3051,10 @@
     </row>
     <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1">
         <v>40179</v>
@@ -3045,10 +3063,10 @@
         <v>40909</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -3074,10 +3092,10 @@
     </row>
     <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1">
         <v>40731</v>
@@ -3086,10 +3104,10 @@
         <v>40813</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G31" t="s">
         <v>77</v>
@@ -3118,10 +3136,10 @@
     </row>
     <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1">
         <v>40544</v>
@@ -3130,7 +3148,7 @@
         <v>41274</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>77</v>
@@ -3162,10 +3180,10 @@
     </row>
     <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="1">
         <v>40731</v>
@@ -3174,10 +3192,10 @@
         <v>40813</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
         <v>77</v>
@@ -3206,10 +3224,10 @@
     </row>
     <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1">
         <v>40731</v>
@@ -3218,10 +3236,10 @@
         <v>40813</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s">
         <v>77</v>
@@ -3233,7 +3251,7 @@
         <v>92</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K34" t="s">
         <v>77</v>
@@ -3250,10 +3268,10 @@
     </row>
     <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="1">
         <v>40731</v>
@@ -3262,10 +3280,10 @@
         <v>40813</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
         <v>77</v>
@@ -3306,10 +3324,10 @@
     </row>
     <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1">
         <v>40731</v>
@@ -3318,10 +3336,10 @@
         <v>40813</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
         <v>77</v>
@@ -3333,7 +3351,7 @@
         <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s">
         <v>77</v>
@@ -3358,10 +3376,10 @@
     </row>
     <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1">
         <v>40731</v>
@@ -3370,10 +3388,10 @@
         <v>40813</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -3410,10 +3428,10 @@
     </row>
     <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1">
         <v>40731</v>
@@ -3422,10 +3440,10 @@
         <v>40813</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="G38" t="s">
         <v>77</v>
@@ -3462,10 +3480,10 @@
     </row>
     <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1">
         <v>40731</v>
@@ -3474,10 +3492,10 @@
         <v>40813</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
         <v>77</v>
@@ -3514,10 +3532,10 @@
     </row>
     <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1">
         <v>40731</v>
@@ -3526,10 +3544,10 @@
         <v>40813</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
         <v>77</v>
@@ -3566,10 +3584,10 @@
     </row>
     <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1">
         <v>40731</v>
@@ -3578,10 +3596,10 @@
         <v>40813</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
         <v>77</v>
@@ -3618,10 +3636,10 @@
     </row>
     <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1">
         <v>40731</v>
@@ -3630,7 +3648,7 @@
         <v>40813</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>77</v>
@@ -3674,10 +3692,10 @@
     </row>
     <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1">
         <v>40731</v>
@@ -3686,10 +3704,10 @@
         <v>40813</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G43" t="s">
         <v>77</v>
@@ -3726,10 +3744,10 @@
     </row>
     <row r="44" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1">
         <v>40544</v>
@@ -3738,7 +3756,7 @@
         <v>40909</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
@@ -3776,10 +3794,10 @@
     </row>
     <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="1">
         <v>40544</v>
@@ -3788,7 +3806,7 @@
         <v>40909</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>77</v>
@@ -3828,10 +3846,10 @@
     </row>
     <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C46" s="1">
         <v>40544</v>
@@ -3840,7 +3858,7 @@
         <v>40909</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -3880,10 +3898,10 @@
     </row>
     <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1">
         <v>40544</v>
@@ -3892,10 +3910,10 @@
         <v>40909</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
         <v>77</v>
@@ -3932,10 +3950,10 @@
     </row>
     <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48" s="1">
         <v>40544</v>
@@ -3944,7 +3962,7 @@
         <v>40909</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>77</v>
@@ -3984,10 +4002,10 @@
     </row>
     <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="1">
         <v>42370</v>
@@ -3996,7 +4014,7 @@
         <v>42736</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>77</v>
@@ -4036,10 +4054,10 @@
     </row>
     <row r="50" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1">
         <v>42370</v>
@@ -4048,10 +4066,10 @@
         <v>42736</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -4088,10 +4106,10 @@
     </row>
     <row r="51" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1">
         <v>42370</v>
@@ -4100,10 +4118,10 @@
         <v>42736</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -4140,10 +4158,10 @@
     </row>
     <row r="52" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" s="1">
         <v>42370</v>
@@ -4152,10 +4170,10 @@
         <v>42736</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -4192,10 +4210,10 @@
     </row>
     <row r="53" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="1">
         <v>42370</v>
@@ -4204,10 +4222,10 @@
         <v>42736</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -4244,10 +4262,10 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1">
         <v>40544</v>
@@ -4256,7 +4274,7 @@
         <v>40909</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>77</v>
@@ -4296,10 +4314,10 @@
     </row>
     <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="1">
         <v>42370</v>
@@ -4308,7 +4326,7 @@
         <v>42736</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>77</v>
@@ -4348,10 +4366,10 @@
     </row>
     <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1">
         <v>42370</v>
@@ -4360,10 +4378,10 @@
         <v>42736</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -4400,10 +4418,10 @@
     </row>
     <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1">
         <v>42370</v>
@@ -4412,7 +4430,7 @@
         <v>42736</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>77</v>
@@ -4452,10 +4470,10 @@
     </row>
     <row r="58" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C58" s="1">
         <v>40544</v>
@@ -4464,7 +4482,7 @@
         <v>40909</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>77</v>
@@ -4508,10 +4526,10 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="1">
         <v>40744</v>
@@ -4520,7 +4538,7 @@
         <v>40745</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>77</v>
@@ -4558,16 +4576,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>263</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D60" s="1">
+        <v>40909</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G60" t="s">
         <v>77</v>
       </c>
@@ -4593,63 +4620,11 @@
         <v>77</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="1">
-        <v>40544</v>
-      </c>
-      <c r="D61" s="1">
-        <v>40909</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s">
-        <v>77</v>
-      </c>
-      <c r="L61" t="s">
-        <v>77</v>
-      </c>
-      <c r="M61" t="s">
-        <v>77</v>
-      </c>
-      <c r="N61" t="s">
-        <v>77</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4687,7 +4662,7 @@
         <v>77</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
@@ -4729,7 +4704,7 @@
         <v>77</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
@@ -4739,12 +4714,72 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U64" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="5" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="12">
+        <v>39814</v>
+      </c>
+      <c r="D71" s="12">
+        <v>40909</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C7E35A9-C74A-473E-9304-C8B2A4A88581}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9FDFD2-F384-4049-91F9-D8D12DFCA0C4}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="274">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>The period I'm looking at with the erosion data falls within these periods, and for each simulation, starts somewhere in July / August. To account for spin up time, the simulation is ran from the start of the year (January 1st) regardless.</t>
+  </si>
+  <si>
+    <t>val16_xb</t>
+  </si>
+  <si>
+    <t>Same as run val15_xb, but changed the xb threshold from 2m to 3.5m</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1396,12 +1402,10 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1874,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,6 +4632,23 @@
         <v>140</v>
       </c>
     </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="1">
+        <v>40544</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4723,27 +4744,27 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="12">
+      <c r="B71" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="8">
         <v>39814</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="8">
         <v>40909</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B72" t="s">
@@ -4755,7 +4776,7 @@
       <c r="D72" s="1">
         <v>42370</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="11" t="s">
         <v>269</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -4763,7 +4784,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B73" t="s">
@@ -4775,7 +4796,7 @@
       <c r="D73" s="1">
         <v>43466</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="11" t="s">
         <v>270</v>
       </c>
       <c r="F73" s="10" t="s">

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9FDFD2-F384-4049-91F9-D8D12DFCA0C4}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C772BEAB-B42B-48E5-A91D-739B6069725A}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="283">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -867,6 +867,33 @@
   </si>
   <si>
     <t>Same as run val15_xb, but changed the xb threshold from 2m to 3.5m</t>
+  </si>
+  <si>
+    <t>val17_xb</t>
+  </si>
+  <si>
+    <t>There are some weird spikes, and the threshold is way to high --&gt; I now fixed the problem with the threshold (the water level was wrong in the data due to incorrect meta data, but that's solved now) and with the spikes (those were due to a the interaction of a water level boundary condition with flow, swave, and lwave turned of. I now directly prescribe energy at the offshore end which seems to have fixed the problem.</t>
+  </si>
+  <si>
+    <t>Same as run val16_xb, but fixed the described problems. The threshold for this run is 0.6.</t>
+  </si>
+  <si>
+    <t>val18_xb</t>
+  </si>
+  <si>
+    <t>Same as run val16_xb, but fixed the described problems. The threshold for this run is 1.0m. This run (together with val16_xb) is meant as a sort of sensitivity analysis to see if running the higher threshold results in much less erosion</t>
+  </si>
+  <si>
+    <t>val_per1_2</t>
+  </si>
+  <si>
+    <t>val_per2_2</t>
+  </si>
+  <si>
+    <t>val_per3_2</t>
+  </si>
+  <si>
+    <t>There were errors with these runs, so val_per1_2, val_per2_2, and val_per3_3 are ran now and the respective first three simulations are stopped. The errors are described at the descriptions of val16_xb.</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1432,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1454,6 +1483,14 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1475,14 +1512,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1544,16 +1573,16 @@
     <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1876,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,8 +1918,10 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" customWidth="1"/>
-    <col min="7" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="134.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -1912,7 +1943,7 @@
       <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G1" t="s">
@@ -3028,7 +3059,7 @@
       <c r="E29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H29" t="s">
@@ -3762,7 +3793,6 @@
       <c r="E44" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F44" s="2"/>
       <c r="G44" t="s">
         <v>77</v>
       </c>
@@ -4632,7 +4662,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -4648,12 +4678,25 @@
       <c r="E61" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="F61" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1">
+        <v>39814</v>
+      </c>
+      <c r="D62" s="1">
+        <v>40179</v>
+      </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>77</v>
@@ -4691,11 +4734,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="1">
+        <v>39814</v>
+      </c>
+      <c r="D63" s="1">
+        <v>40179</v>
+      </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>77</v>
@@ -4783,7 +4836,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>268</v>
       </c>
@@ -4799,8 +4852,59 @@
       <c r="E73" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>91</v>
+      <c r="F73" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D74" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C772BEAB-B42B-48E5-A91D-739B6069725A}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DF9170-CFF5-4F3F-9E65-FAAD0823A4B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="overview_runs" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'overview_runs (2)'!$A$1:$N$63</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'overview_runs (2)'!$A$1:$N$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="295">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -894,6 +894,42 @@
   </si>
   <si>
     <t>There were errors with these runs, so val_per1_2, val_per2_2, and val_per3_3 are ran now and the respective first three simulations are stopped. The errors are described at the descriptions of val16_xb.</t>
+  </si>
+  <si>
+    <t>val19_xb</t>
+  </si>
+  <si>
+    <t>Same as run val17_xb, but fixed the described problems</t>
+  </si>
+  <si>
+    <t>A wall of sediment is forming. There is a problem with the hotstart. An empty Xbeach run, which is done every 168 timesteps, does not generate the correct hostart files. The fix here is that empty Xbeach runs will get much lower wave conditions prescribed, and hotstart files are only read if the previous timestep was a storm timestep and not just an xbeach timestep. These settings are tested with run val19_xb</t>
+  </si>
+  <si>
+    <t>The run is stable and finishes in a period of 19 hours. There are some problems with this run: the erosion rates are way too high, the beach erodes, and the dry slope is likely too low. I will first look into the beach erosion / erosion rates. To this end, the onshore transport should be increased. The default value for (facSk, facAs, facua) are (0.15; 0.20; 0.175) respectively. I will start with trying 2 sets of values (0.025; 0.025; 0.025) and (0. 05; 0.05; 0.05), both for two different slopes as well: the 0.6 I've been working with so far, and 1.0.</t>
+  </si>
+  <si>
+    <t>val_per1_3</t>
+  </si>
+  <si>
+    <t>val_per1_4</t>
+  </si>
+  <si>
+    <t>val_per1_5</t>
+  </si>
+  <si>
+    <t>val_per1_6</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.025; 0.025; 0.025; 0.6)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.025; 0.025; 0.025; 1.0)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.05; 0.05; 0.05; 0.6)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.05; 0.05; 0.05; 1.0)</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1368,6 +1404,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1413,7 +1458,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1435,6 +1480,11 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1483,14 +1533,6 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1512,6 +1554,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1566,23 +1616,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}" name="overview_runs" displayName="overview_runs" ref="A1:N63" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N63" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}" name="overview_runs" displayName="overview_runs" ref="A1:N64" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N64" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1905,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,7 +4732,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -4699,7 +4749,7 @@
         <v>276</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -4787,6 +4837,30 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="1">
+        <v>39814</v>
+      </c>
+      <c r="D64" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
       <c r="U64" s="4" t="s">
         <v>150</v>
       </c>
@@ -4856,7 +4930,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>279</v>
       </c>
@@ -4871,6 +4945,9 @@
       </c>
       <c r="E74" s="11" t="s">
         <v>262</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4905,6 +4982,74 @@
       </c>
       <c r="E76" s="11" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D77" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D78" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D79" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D80" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7DF9170-CFF5-4F3F-9E65-FAAD0823A4B4}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CF436B-CD97-40B9-ABE8-1AF3A129A24E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="299">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -930,6 +930,18 @@
   </si>
   <si>
     <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.05; 0.05; 0.05; 1.0)</t>
+  </si>
+  <si>
+    <t>succesful</t>
+  </si>
+  <si>
+    <t>crashed (there was an issue where xbeach didn't read in long floats, so I added a rounding function)</t>
+  </si>
+  <si>
+    <t>crashed (same reason as val_per2_2</t>
+  </si>
+  <si>
+    <t>Ran the wrong simulation, so will try again</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1470,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1478,10 +1490,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1957,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4837,7 +4845,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" t="s">
         <v>283</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4849,18 +4857,9 @@
       <c r="D64" s="1">
         <v>40179</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
       <c r="U64" s="4" t="s">
         <v>150</v>
       </c>
@@ -4966,6 +4965,9 @@
       <c r="E75" s="11" t="s">
         <v>269</v>
       </c>
+      <c r="F75" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -4983,9 +4985,12 @@
       <c r="E76" s="11" t="s">
         <v>270</v>
       </c>
+      <c r="F76" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -5000,9 +5005,12 @@
       <c r="E77" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="F77" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -5017,9 +5025,12 @@
       <c r="E78" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="F78" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -5034,9 +5045,12 @@
       <c r="E79" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -5050,6 +5064,9 @@
       </c>
       <c r="E80" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CF436B-CD97-40B9-ABE8-1AF3A129A24E}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602D3AD4-281F-425C-97EF-4237EE1CDF66}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="38320" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="316">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -932,9 +932,6 @@
     <t>Validation of first period with the following model settings: (facSk, facAs, facua, dry_slope) = (0.05; 0.05; 0.05; 1.0)</t>
   </si>
   <si>
-    <t>succesful</t>
-  </si>
-  <si>
     <t>crashed (there was an issue where xbeach didn't read in long floats, so I added a rounding function)</t>
   </si>
   <si>
@@ -942,6 +939,60 @@
   </si>
   <si>
     <t>Ran the wrong simulation, so will try again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">succesful. There seem to be sufficient storms to take the slumped material offshore, so for now I will just continue working with the assumed threshold of 1m. Something to consider is: we already know Xbeach is bad for building up beaches. That means that I can't just up the onshore transport through asymmetry, and expect the beach to stay. I guess I can try though. When I increase the xbeach threshold, the number of xbeach timesteps decreases and the profile becomes more representive of large storms. Can I deal with this by increasing onshore transport? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The beach dissapears further when the dryslope is increased, due to there being less slumped material. Due to the beach dissapearing, the runup is increased (because the slope at the waterline is now representive of the bluff), leading to more xbeach runs, maybe building up the beach if there's sufficientonshore transport? I can try this by upping the onshore transport further and keep the dry slope at 1.0</t>
+  </si>
+  <si>
+    <t>val_per1_7</t>
+  </si>
+  <si>
+    <t>After the results of previous simulation, I want to see what the effect is of runninign more storms with a bith higher onshore transport, and see how that varies of different XB thresholds and different onshore transports. Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (0.7; 0.075; 0.075; 0.075; 1.0)</t>
+  </si>
+  <si>
+    <t>val_per1_8</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (1.0; 0.075; 0.075; 0.075; 1.0)</t>
+  </si>
+  <si>
+    <t>val_per1_9</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (0.7; 0.10; 0.10; 0.10; 1.0)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (1.0; 0.10; 0.10; 0.10; 1.0)</t>
+  </si>
+  <si>
+    <t>val_per1_10</t>
+  </si>
+  <si>
+    <t>val_per1_11</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (0.7; 0.125; 0.125; 0.125; 1.0)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (1.0; 0.125; 0.125; 0.125; 1.0)</t>
+  </si>
+  <si>
+    <t>val_per1_12</t>
+  </si>
+  <si>
+    <t>val_per1_13</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (0.7; 0.15; 0.15; 0.15; 1.0)</t>
+  </si>
+  <si>
+    <t>val_per1_14</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (1.0; 0.15; 0.15; 0.15; 1.0)</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,7 +5017,7 @@
         <v>269</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4986,7 +5037,7 @@
         <v>270</v>
       </c>
       <c r="F76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5006,7 +5057,7 @@
         <v>291</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5026,10 +5077,10 @@
         <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>289</v>
       </c>
@@ -5046,10 +5097,10 @@
         <v>293</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>290</v>
       </c>
@@ -5066,8 +5117,147 @@
         <v>294</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D81" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D82" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D83" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D84" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D85" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D86" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D87" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="8">
+        <v>39814</v>
+      </c>
+      <c r="D88" s="8">
+        <v>40909</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602D3AD4-281F-425C-97EF-4237EE1CDF66}"/>
+  <xr:revisionPtr revIDLastSave="551" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4594F104-3AB6-496B-85FA-93BF3B8B25A4}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="351">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -993,6 +993,111 @@
   </si>
   <si>
     <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope) = (1.0; 0.15; 0.15; 0.15; 1.0)</t>
+  </si>
+  <si>
+    <t>The beach just kind of dissapears for both simulations, but this effect is more profound for the steeper dry slope. The profile tends towards this dry slope after enough time. A lower dry slope leads to higher erosion of the bluff edge, but lower erosion of the shore line.</t>
+  </si>
+  <si>
+    <t>It seems the XB threshold governs the erosion rate to a large extend. The less Xbeach is ran, the less erosion we see. Running Xbeach less frequently also helps retaining the beach to some extend, and increased onshore transport does help with that a little. The question now becomes: what is a good threshold? And is there some other way to constrain erosion? Do I up the onshore transport further to it's default values? Maybe I can decrease the energy in the domain by increasing friction values from 0.01 to 0.02? Let's try.</t>
+  </si>
+  <si>
+    <t>val_per1_15</t>
+  </si>
+  <si>
+    <t>val_per1_16</t>
+  </si>
+  <si>
+    <t>val_per1_17</t>
+  </si>
+  <si>
+    <t>val_per1_18</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.15; 0.15; 0.15; 1.0; 0.03)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.15; 0.15; 0.15; 1.0; 0.03)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.15; 0.20; 0.175; 1.0; 0.03). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.15; 0.20; 0.175; 1.0; 0.03). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.15; 0.15; 0.15; 1.0; 0.04)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.15; 0.15; 0.15; 1.0; 0.04)</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.15; 0.20; 0.175; 1.0; 0.04). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of first period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.15; 0.20; 0.175; 1.0; 0.04). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>val_per1_19</t>
+  </si>
+  <si>
+    <t>val_per1_20</t>
+  </si>
+  <si>
+    <t>val_per1_21</t>
+  </si>
+  <si>
+    <t>val_per1_22</t>
+  </si>
+  <si>
+    <t>Looking at these results, Kees thinks I shouldn't touch the bed friction as much, but instead should up the onshore transport. This might mess the profile up a little bit, but should give better results as friction is more commonly used when friction is the unknown, i.e. due to vegetation drag.</t>
+  </si>
+  <si>
+    <t>val_per2_3</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.15; 0.20; 0.175; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>val_per2_4</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.20; 0.25; 0.225; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.15; 0.20; 0.175; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.20; 0.25; 0.225; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>val_per2_6</t>
+  </si>
+  <si>
+    <t>val_per2_5</t>
+  </si>
+  <si>
+    <t>val_per2_7</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.25; 0.30; 0.275; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.25; 0.30; 0.275; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>val_per2_8</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.30; 0.35; 0.325; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.30; 0.35; 0.325; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>val_per2_9</t>
+  </si>
+  <si>
+    <t>val_per2_10</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1476,6 +1581,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1521,7 +1675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1544,6 +1698,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2014,29 +2187,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89:G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="65.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="134.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="134.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -2080,7 +2253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2118,7 +2291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2152,7 +2325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2193,7 +2366,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2234,7 +2407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2275,7 +2448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2316,7 +2489,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2350,7 +2523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2382,7 +2555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -2414,7 +2587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2455,7 +2628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2496,7 +2669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2537,7 +2710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2578,7 +2751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2619,7 +2792,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2660,7 +2833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2701,7 +2874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -2742,7 +2915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -2783,7 +2956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -2824,7 +2997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -2865,7 +3038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -2906,7 +3079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -2947,7 +3120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -2988,7 +3161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -3029,7 +3202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -3070,7 +3243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -3111,7 +3284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -3152,7 +3325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -3193,7 +3366,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -3234,7 +3407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -3278,7 +3451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -3322,7 +3495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -3366,7 +3539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -3410,7 +3583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -3466,7 +3639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>197</v>
       </c>
@@ -3518,7 +3691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>205</v>
       </c>
@@ -3570,7 +3743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -3622,7 +3795,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -3674,7 +3847,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>211</v>
       </c>
@@ -3726,7 +3899,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -3778,7 +3951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>216</v>
       </c>
@@ -3834,7 +4007,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -3886,7 +4059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -3935,7 +4108,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>226</v>
       </c>
@@ -3987,7 +4160,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -4039,7 +4212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>229</v>
       </c>
@@ -4091,7 +4264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4143,7 +4316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -4195,7 +4368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -4247,7 +4420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -4299,7 +4472,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -4351,7 +4524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -4403,7 +4576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>248</v>
       </c>
@@ -4455,7 +4628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>251</v>
       </c>
@@ -4507,7 +4680,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -4559,7 +4732,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>256</v>
       </c>
@@ -4611,7 +4784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -4667,7 +4840,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -4719,7 +4892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -4771,7 +4944,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -4791,7 +4964,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -4843,7 +5016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -4895,7 +5068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -4920,7 +5093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>265</v>
       </c>
@@ -4940,7 +5113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>267</v>
       </c>
@@ -4960,7 +5133,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>268</v>
       </c>
@@ -4980,7 +5153,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>279</v>
       </c>
@@ -5000,7 +5173,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>280</v>
       </c>
@@ -5020,7 +5193,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>281</v>
       </c>
@@ -5040,7 +5213,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
         <v>287</v>
       </c>
@@ -5059,8 +5232,11 @@
       <c r="F77" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G77" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
         <v>288</v>
       </c>
@@ -5079,8 +5255,17 @@
       <c r="F78" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="G78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>289</v>
       </c>
@@ -5100,17 +5285,17 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="8">
+      <c r="B80" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="16">
         <v>39814</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="16">
         <v>40909</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5120,24 +5305,27 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+    <row r="81" spans="1:6" ht="146.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="B81" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="18">
         <v>39814</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="18">
         <v>40909</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="19" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F81" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="s">
         <v>302</v>
       </c>
@@ -5154,7 +5342,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>304</v>
       </c>
@@ -5171,7 +5359,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>307</v>
       </c>
@@ -5188,7 +5376,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>308</v>
       </c>
@@ -5205,7 +5393,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>311</v>
       </c>
@@ -5222,7 +5410,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>312</v>
       </c>
@@ -5239,25 +5427,299 @@
         <v>313</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="8">
+      <c r="B88" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="16">
         <v>39814</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="16">
         <v>40909</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="20">
+        <v>39814</v>
+      </c>
+      <c r="D89" s="20">
+        <v>40909</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D90" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D91" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D92" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D93" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D94" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D95" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D96" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="24">
+        <v>40909</v>
+      </c>
+      <c r="D97" s="24">
+        <v>42370</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D98" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D99" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D100" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D101" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D102" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D103" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="26">
+        <v>40909</v>
+      </c>
+      <c r="D104" s="26">
+        <v>42370</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>348</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5274,14 +5736,14 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5289,12 +5751,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5308,7 +5770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5336,7 +5798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5344,22 +5806,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +5829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5375,7 +5837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5386,7 +5848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5397,7 +5859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5414,7 +5876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5431,7 +5893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5439,232 +5901,232 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4594F104-3AB6-496B-85FA-93BF3B8B25A4}"/>
+  <xr:revisionPtr revIDLastSave="1308" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A842E9-CAFE-4244-B37F-D8976D46D866}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview_runs (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="overview_runs" sheetId="1" r:id="rId2"/>
+    <sheet name="overview_runs1" sheetId="1" r:id="rId1"/>
+    <sheet name="overview_runs2" sheetId="2" r:id="rId2"/>
+    <sheet name="overview_runs_sensitivity" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'overview_runs (2)'!$A$1:$N$64</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">overview_runs2!$A$1:$N$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="566">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -1098,13 +1099,658 @@
   </si>
   <si>
     <t>val_per2_10</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>val_per2_11</t>
+  </si>
+  <si>
+    <t>val_per2_12</t>
+  </si>
+  <si>
+    <t>val_per2_13</t>
+  </si>
+  <si>
+    <t>val_per2_14</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>--&gt; Too slow. For lower values of facSk and facAs, the low onshore transport results in erosion of the beach, and direct contact with the bluff, leading to increased runup and too many xbeach runs to be feasible. 0.7 as a threshold is therefore not feasible for lower onshore transport factors.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.35; 0.40; 0.375; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.35; 0.40; 0.375; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (0.7; 0.40; 0.45; 0.425; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.40; 0.45; 0.425; 1.0; 0.02). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>How to increase bluff erosion without destroying the beach? The more I increase onshore transport, the lower the bluff erosion gets, though it doesn't make that much of a difference.. The erosion happens in steps anyway, due to the horizontal grid resolution. I could increase the bluff erosion by tightening the coupling between XB and thermal module, by reducing the alternation from 1 week to e.g. twice a day. I guess I'll try that overnight. I know the beach should remain fairly intact for val_per2_9, I'll use copies of  9 and 10 for these runs.</t>
+  </si>
+  <si>
+    <t>val_per2_15</t>
+  </si>
+  <si>
+    <t>val_per2_16</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf, call_xbeach_inter) = (0.7; 0.30; 0.35; 0.325; 1.0; 0.02; 12). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf, call_xbeach_inter) = (1.0; 0.30; 0.35; 0.325; 1.0; 0.02; 12). This run has default onshore transport settings.</t>
+  </si>
+  <si>
+    <t>I tried some even higher values for nshore transport through wave asymmetry for these simulations. I found that for val_per2_14, the beach shape is retained fairly well. Furthermore, erosion rates seem higher for the lower threshold of val_per2_13 (as expected). Let's hope now that a tighter coupling of the thermal and xbeach modules results in more accurate erosion rates.</t>
+  </si>
+  <si>
+    <t>val_per1_best</t>
+  </si>
+  <si>
+    <t>val_per3_best</t>
+  </si>
+  <si>
+    <t>After checking all validation runs for period 2 against real erosion data, it shows that val_per2_3 is the best, but computational time is awful so I'm going to show results for both validation with fast and somewhat okay settings (val_per2_8) and best settings (val_per2__3) --&gt; setup runs with same settings for period 1 &amp; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesnitivity Analysis </t>
+  </si>
+  <si>
+    <t>The default settings are equal to run "...", but for years 2017 - 2018 because that's when we see consistent erosion so that's a good year to test sensitivity on</t>
+  </si>
+  <si>
+    <t>Level 1: Bathymetry</t>
+  </si>
+  <si>
+    <t>Expectations</t>
+  </si>
+  <si>
+    <t>Ran?</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>continental_flat_width</t>
+  </si>
+  <si>
+    <t>offshore_slope</t>
+  </si>
+  <si>
+    <t>offshore_max_depth</t>
+  </si>
+  <si>
+    <t>nearshore_slope</t>
+  </si>
+  <si>
+    <t>nearshore_max_depth</t>
+  </si>
+  <si>
+    <t>beach_slope</t>
+  </si>
+  <si>
+    <t>beach_width</t>
+  </si>
+  <si>
+    <t>bluff_slope</t>
+  </si>
+  <si>
+    <t>bluff_height</t>
+  </si>
+  <si>
+    <t>Varied_parameter</t>
+  </si>
+  <si>
+    <t>New value</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Baseline value</t>
+  </si>
+  <si>
+    <t>Level 1: Model parameters</t>
+  </si>
+  <si>
+    <t>sea_ice_threshold</t>
+  </si>
+  <si>
+    <t>surface_flux_factor</t>
+  </si>
+  <si>
+    <t>surface_flux_angle</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>N_thaw_threshold</t>
+  </si>
+  <si>
+    <t>xb_threshold</t>
+  </si>
+  <si>
+    <t>grid_resolution_xb</t>
+  </si>
+  <si>
+    <t>grid_resolution_thermal</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>ppwl</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>Level 1: physical parameters</t>
+  </si>
+  <si>
+    <t>geothermal_gradient</t>
+  </si>
+  <si>
+    <t>c_soil_unfrozen</t>
+  </si>
+  <si>
+    <t>c_soil_frozen</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>rho_particle / rho_solid</t>
+  </si>
+  <si>
+    <t>lsgrad</t>
+  </si>
+  <si>
+    <t>bedfriccoef</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>wetslp</t>
+  </si>
+  <si>
+    <t>dryslp</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>rho_water</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>k_soil_frozen</t>
+  </si>
+  <si>
+    <t>k_soil_unfrozen</t>
+  </si>
+  <si>
+    <t>1/m</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>J/K/m3</t>
+  </si>
+  <si>
+    <t>W/m/K</t>
+  </si>
+  <si>
+    <t>J/kg</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>K/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 2: Environmental drivers </t>
+  </si>
+  <si>
+    <t>Level 2: Environemental drivers</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>Level 3: Discussion</t>
+  </si>
+  <si>
+    <t>Thermal module</t>
+  </si>
+  <si>
+    <t>Solar flux calcuator</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>(Hydrodynamics)*</t>
+  </si>
+  <si>
+    <t>(Thermodynamics)*</t>
+  </si>
+  <si>
+    <t>call_xbeach_inter</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicitly but rather multiplied </t>
+  </si>
+  <si>
+    <t>by some factor detailed here.</t>
+  </si>
+  <si>
+    <t>sa_lvl1_1</t>
+  </si>
+  <si>
+    <t>sa_lvl1_2</t>
+  </si>
+  <si>
+    <t>sa_lvl1_3</t>
+  </si>
+  <si>
+    <t>sa_lvl1_4</t>
+  </si>
+  <si>
+    <t>sa_lvl1_5</t>
+  </si>
+  <si>
+    <t>sa_lvl1_6</t>
+  </si>
+  <si>
+    <t>sa_lvl1_7</t>
+  </si>
+  <si>
+    <t>sa_lvl1_8</t>
+  </si>
+  <si>
+    <t>sa_lvl1_9</t>
+  </si>
+  <si>
+    <t>sa_lvl1_10</t>
+  </si>
+  <si>
+    <t>sa_lvl1_11</t>
+  </si>
+  <si>
+    <t>sa_lvl1_12</t>
+  </si>
+  <si>
+    <t>sa_lvl1_13</t>
+  </si>
+  <si>
+    <t>sa_lvl1_14</t>
+  </si>
+  <si>
+    <t>sa_lvl1_15</t>
+  </si>
+  <si>
+    <t>sa_lvl1_16</t>
+  </si>
+  <si>
+    <t>sa_lvl1_17</t>
+  </si>
+  <si>
+    <t>sa_lvl1_18</t>
+  </si>
+  <si>
+    <t>sa_lvl1_19</t>
+  </si>
+  <si>
+    <t>sa_lvl1_20</t>
+  </si>
+  <si>
+    <t>sa_lvl1_21</t>
+  </si>
+  <si>
+    <t>sa_lvl1_22</t>
+  </si>
+  <si>
+    <t>sa_lvl1_23</t>
+  </si>
+  <si>
+    <t>sa_lvl1_24</t>
+  </si>
+  <si>
+    <t>sa_lvl1_25</t>
+  </si>
+  <si>
+    <t>sa_lvl1_26</t>
+  </si>
+  <si>
+    <t>sa_lvl1_27</t>
+  </si>
+  <si>
+    <t>sa_lvl1_28</t>
+  </si>
+  <si>
+    <t>sa_lvl1_29</t>
+  </si>
+  <si>
+    <t>sa_lvl1_30</t>
+  </si>
+  <si>
+    <t>sa_lvl1_31</t>
+  </si>
+  <si>
+    <t>sa_lvl1_32</t>
+  </si>
+  <si>
+    <t>sa_lvl1_33</t>
+  </si>
+  <si>
+    <t>sa_lvl1_34</t>
+  </si>
+  <si>
+    <t>sa_lvl1_35</t>
+  </si>
+  <si>
+    <t>sa_lvl1_36</t>
+  </si>
+  <si>
+    <t>sa_lvl1_37</t>
+  </si>
+  <si>
+    <t>sa_lvl1_38</t>
+  </si>
+  <si>
+    <t>sa_lvl1_39</t>
+  </si>
+  <si>
+    <t>sa_lvl1_40</t>
+  </si>
+  <si>
+    <t>sa_lvl1_41</t>
+  </si>
+  <si>
+    <t>sa_lvl1_42</t>
+  </si>
+  <si>
+    <t>sa_lvl1_43</t>
+  </si>
+  <si>
+    <t>sa_lvl1_44</t>
+  </si>
+  <si>
+    <t>sa_lvl1_45</t>
+  </si>
+  <si>
+    <t>sa_lvl1_46</t>
+  </si>
+  <si>
+    <t>sa_lvl1_47</t>
+  </si>
+  <si>
+    <t>sa_lvl1_48</t>
+  </si>
+  <si>
+    <t>sa_lvl1_49</t>
+  </si>
+  <si>
+    <t>sa_lvl1_50</t>
+  </si>
+  <si>
+    <t>sa_lvl1_51</t>
+  </si>
+  <si>
+    <t>sa_lvl1_52</t>
+  </si>
+  <si>
+    <t>sa_lvl1_53</t>
+  </si>
+  <si>
+    <t>sa_lvl1_54</t>
+  </si>
+  <si>
+    <t>sa_lvl1_55</t>
+  </si>
+  <si>
+    <t>sa_lvl1_56</t>
+  </si>
+  <si>
+    <t>sa_lvl1_57</t>
+  </si>
+  <si>
+    <t>sa_lvl1_58</t>
+  </si>
+  <si>
+    <t>sa_lvl1_59</t>
+  </si>
+  <si>
+    <t>sa_lvl1_60</t>
+  </si>
+  <si>
+    <t>sa_lvl1_61</t>
+  </si>
+  <si>
+    <t>sa_lvl1_62</t>
+  </si>
+  <si>
+    <t>sa_lvl1_63</t>
+  </si>
+  <si>
+    <t>sa_lvl1_64</t>
+  </si>
+  <si>
+    <t>sa_lvl1_65</t>
+  </si>
+  <si>
+    <t>sa_lvl1_66</t>
+  </si>
+  <si>
+    <t>sa_lvl1_67</t>
+  </si>
+  <si>
+    <t>sa_lvl1_68</t>
+  </si>
+  <si>
+    <t>sa_lvl2_1</t>
+  </si>
+  <si>
+    <t>sa_lvl2_2</t>
+  </si>
+  <si>
+    <t>sa_lvl2_3</t>
+  </si>
+  <si>
+    <t>sa_lvl2_4</t>
+  </si>
+  <si>
+    <t>sa_lvl2_5</t>
+  </si>
+  <si>
+    <t>sa_lvl2_6</t>
+  </si>
+  <si>
+    <t>sa_lvl2_7</t>
+  </si>
+  <si>
+    <t>sa_lvl2_8</t>
+  </si>
+  <si>
+    <t>sa_lvl2_9</t>
+  </si>
+  <si>
+    <t>sa_lvl2_10</t>
+  </si>
+  <si>
+    <t>sa_lvl2_11</t>
+  </si>
+  <si>
+    <t>sa_lvl2_12</t>
+  </si>
+  <si>
+    <t>sa_lvl2_13</t>
+  </si>
+  <si>
+    <t>sa_lvl2_14</t>
+  </si>
+  <si>
+    <t>sa_lvl2_15</t>
+  </si>
+  <si>
+    <t>sa_lvl2_16</t>
+  </si>
+  <si>
+    <t>sa_lvl3_1</t>
+  </si>
+  <si>
+    <t>sa_lvl3_2</t>
+  </si>
+  <si>
+    <t>+- 20%</t>
+  </si>
+  <si>
+    <t>+- 10% (if possible)</t>
+  </si>
+  <si>
+    <t>+- 20% (if possible)</t>
+  </si>
+  <si>
+    <t>+- 1% or 5% (otherwise)</t>
+  </si>
+  <si>
+    <t>+0.1</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>Wave height**</t>
+  </si>
+  <si>
+    <t>Wave period**</t>
+  </si>
+  <si>
+    <t>Convective heat flux**</t>
+  </si>
+  <si>
+    <t>Longwave heat flux**</t>
+  </si>
+  <si>
+    <t>Shortwave heat flux**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**These drivers are not varied </t>
+  </si>
+  <si>
+    <t>Water level*</t>
+  </si>
+  <si>
+    <t>Sea temperature*</t>
+  </si>
+  <si>
+    <t>2m air temperature*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicitly but rather some </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> value is added.</t>
+  </si>
+  <si>
+    <t>*0.9</t>
+  </si>
+  <si>
+    <t>*1.1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+- 33% or 0.10 (otherwise)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>val_per2_17</t>
+  </si>
+  <si>
+    <t>It doesnt</t>
+  </si>
+  <si>
+    <t>val_per2_18</t>
+  </si>
+  <si>
+    <t>val_per2_19</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.40; 0.45; 0.425; 1.0; 0.02). Also, I changed the thermal resolution to 500 nodes over 5m depth, and the N thaw threshold to 10 (i.e. 10cm).</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.40; 0.45; 0.425; 1.0; 0.02). Also, I changed the thermal resolution to 500 nodes over 5m depth, and the N thaw threshold to 20 (i.e. 20cm).</t>
+  </si>
+  <si>
+    <t>Validation of second period with the following model settings: (xb_threshold, facSk, facAs, facua, dry_slope, cf) = (1.0; 0.40; 0.45; 0.425; 1.0; 0.02). Also, I changed the thermal resolution to 500 nodes over 5m depth, and the N thaw threshold to 40 (i.e. 40cm).</t>
+  </si>
+  <si>
+    <t>Baseline run:</t>
+  </si>
+  <si>
+    <t>sa_base</t>
+  </si>
+  <si>
+    <t>val_per2_no-therm</t>
+  </si>
+  <si>
+    <t>val_per1_no-therm</t>
+  </si>
+  <si>
+    <t>val_per3_no-therm</t>
+  </si>
+  <si>
+    <t>These three runs are done to showcase whether or not the thermal module is actually needed to yield accurate results. For these runs, structures in Xbeach are turned off.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,8 +1891,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,8 +2092,32 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1630,6 +2314,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1675,7 +2428,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1698,8 +2451,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1707,16 +2460,91 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="19" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1762,7 +2590,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1851,20 +2693,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}" name="overview_runs" displayName="overview_runs" ref="A1:N64" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:N64" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2186,18 +3028,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443E9100-60AD-456C-876B-5040F4869951}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89:G104"/>
+    <sheetView topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
     <col min="5" max="5" width="65.54296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.453125" style="2" customWidth="1"/>
@@ -5451,9 +6699,7 @@
       <c r="A89" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="20">
         <v>39814</v>
       </c>
@@ -5463,15 +6709,15 @@
       <c r="E89" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F89" s="19"/>
-    </row>
-    <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F89" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A90" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="B90" s="14"/>
       <c r="C90" s="14">
         <v>39814</v>
       </c>
@@ -5480,15 +6726,16 @@
       </c>
       <c r="E90" s="2" t="s">
         <v>323</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="B91" s="14"/>
       <c r="C91" s="14">
         <v>39814</v>
       </c>
@@ -5497,15 +6744,16 @@
       </c>
       <c r="E91" s="2" t="s">
         <v>324</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="B92" s="14"/>
       <c r="C92" s="14">
         <v>39814</v>
       </c>
@@ -5514,6 +6762,9 @@
       </c>
       <c r="E92" s="2" t="s">
         <v>325</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5529,8 +6780,11 @@
       <c r="D93" s="14">
         <v>40909</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="2" t="s">
         <v>326</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -5549,6 +6803,9 @@
       <c r="E94" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="F94" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="21" t="s">
@@ -5566,6 +6823,9 @@
       <c r="E95" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="F95" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="21" t="s">
@@ -5583,142 +6843,381 @@
       <c r="E96" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="23" t="s">
+      <c r="F96" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="23">
         <v>40909</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="23">
         <v>42370</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="F97" s="25"/>
-    </row>
-    <row r="98" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F97" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A98" s="21" t="s">
         <v>337</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="1">
         <v>40909</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D98" s="1">
         <v>42370</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F98" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99" s="26">
+      <c r="B99" s="14"/>
+      <c r="C99" s="1">
         <v>40909</v>
       </c>
-      <c r="D99" s="26">
+      <c r="D99" s="1">
         <v>42370</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C100" s="26">
+      <c r="B100" s="14"/>
+      <c r="C100" s="1">
         <v>40909</v>
       </c>
-      <c r="D100" s="26">
+      <c r="D100" s="1">
         <v>42370</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F100" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="1">
         <v>40909</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D101" s="1">
         <v>42370</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F101" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="26">
+      <c r="B102" s="14"/>
+      <c r="C102" s="1">
         <v>40909</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D102" s="1">
         <v>42370</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
         <v>349</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="1">
         <v>40909</v>
       </c>
-      <c r="D103" s="26">
+      <c r="D103" s="1">
         <v>42370</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F103" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
         <v>350</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="1">
         <v>40909</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="1">
         <v>42370</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="2" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="25">
+        <v>40909</v>
+      </c>
+      <c r="D105" s="25">
+        <v>42370</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A108" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="27">
+        <v>40909</v>
+      </c>
+      <c r="D108" s="27">
+        <v>42370</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G108" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A111" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C111" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D111" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A112" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="C112" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A113" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C113" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D117" s="14">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D118" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="21"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C120" s="14">
+        <v>39814</v>
+      </c>
+      <c r="D120" s="14">
+        <v>40909</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="79" t="s">
+        <v>562</v>
+      </c>
+      <c r="C121" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D121" s="1">
+        <v>42370</v>
+      </c>
+      <c r="F121" s="29"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C122" s="1">
+        <v>42370</v>
+      </c>
+      <c r="D122" s="1">
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
@@ -5730,408 +7229,2297 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443E9100-60AD-456C-876B-5040F4869951}">
-  <dimension ref="A1:F63"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75F9AE4-E009-4C46-8040-45DAE518B9F1}">
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="34">
+        <f>C3*0.8</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H3" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="35">
+        <f>C3*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H4" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="34">
+        <f>C5*0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G5" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H5" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>446</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>560</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="51"/>
+      <c r="E6" s="35">
+        <f>C5*1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G6" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H6" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7">
+        <v>12.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="34">
+        <f>C7*0.8</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H7" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="E8" s="35">
+        <f>C7*1.2</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G8" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H8" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" ref="E9:E20" si="0">C9*0.8</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G9" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H9" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="51"/>
+      <c r="E10" s="35">
+        <f t="shared" ref="E10:E20" si="1">C9*1.2</f>
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H10" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="51"/>
+      <c r="B11" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" ref="E11:E20" si="2">C11*0.8</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G11" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H11" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="51"/>
+      <c r="E12" s="35">
+        <f t="shared" ref="E12:E20" si="3">C11*1.2</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H12" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="51"/>
+      <c r="B13" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13">
+        <v>0.03</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" ref="E13:E20" si="4">C13*0.8</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H13" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="51"/>
+      <c r="E14" s="35">
+        <f t="shared" ref="E14:E20" si="5">C13*1.2</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G14" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H14" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E20" si="6">C15*0.8</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G15" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H15" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="E16" s="35">
+        <f t="shared" ref="E16:E20" si="7">C15*1.2</f>
+        <v>6</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H16" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
+      <c r="B17" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" ref="E17:E20" si="8">C17*0.8</f>
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H17" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="51"/>
+      <c r="B18" s="37"/>
+      <c r="E18" s="35">
+        <f t="shared" ref="E18:E20" si="9">C17*1.2</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G18" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H18" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="34">
+        <f t="shared" ref="E19:E20" si="10">C19*0.8</f>
+        <v>320</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G19" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H19" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="51"/>
+      <c r="B20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="73">
+        <f t="shared" ref="E20" si="11">C19*1.2</f>
+        <v>480</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" s="59">
+        <v>42736</v>
+      </c>
+      <c r="H20" s="59">
+        <v>43101</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="34">
+        <f>C21 *0.9</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G21" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H21" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="E22" s="35">
+        <f>C21*1.1</f>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G22" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H22" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="34">
+        <f>C23*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G23" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H23" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
+      <c r="B24" s="37"/>
+      <c r="E24" s="35">
+        <f>C23*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G24" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H24" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="63">
+        <v>1</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="34">
+        <f t="shared" ref="E25:E34" si="12">C25*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="64">
+        <v>42736</v>
+      </c>
+      <c r="H25" s="64">
+        <v>43101</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="35">
+        <f t="shared" ref="E26:E34" si="13">C25*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G26" s="64">
+        <v>42736</v>
+      </c>
+      <c r="H26" s="64">
+        <v>43101</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="63">
+        <v>20</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" ref="E27:E34" si="14">C27*0.9</f>
+        <v>18</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27" s="64">
+        <v>42736</v>
+      </c>
+      <c r="H27" s="64">
+        <v>43101</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="35">
+        <f t="shared" ref="E28:E34" si="15">C27*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28" s="64">
+        <v>42736</v>
+      </c>
+      <c r="H28" s="64">
+        <v>43101</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E34" si="16">C29*0.9</f>
+        <v>36</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G29" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H29" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="51"/>
+      <c r="E30" s="35">
+        <f t="shared" ref="E30:E34" si="17">C29*1.1</f>
+        <v>44</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G30" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H30" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="51"/>
+      <c r="B31" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="34">
+        <f t="shared" ref="E31:E34" si="18">C31*0.9</f>
+        <v>135</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G31" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H31" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="37"/>
+      <c r="E32" s="35">
+        <f t="shared" ref="E32:E34" si="19">C31*1.1</f>
+        <v>165</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G32" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H32" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="51"/>
+      <c r="B33" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" s="34">
+        <f t="shared" ref="E33:E34" si="20">C33*0.9</f>
+        <v>13.5</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G33" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H33" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="37"/>
+      <c r="E34" s="35">
+        <f t="shared" ref="E34" si="21">C33*1.1</f>
+        <v>16.5</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H34" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
+      <c r="B35" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" s="37">
+        <v>3</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="34">
+        <f>C35*2/3</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G35" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H35" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>476</v>
+      </c>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="51"/>
+      <c r="B36" s="37"/>
+      <c r="E36" s="35">
+        <f>C35*4/3</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H36" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
+      <c r="B37" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E37" s="34">
+        <f>C37*0.9</f>
+        <v>151.20000000000002</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G37" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H37" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="53"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="73">
+        <f>C37*1.1</f>
+        <v>184.8</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>552</v>
+      </c>
+      <c r="G38" s="59">
+        <v>42736</v>
+      </c>
+      <c r="H38" s="59">
+        <v>43101</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="34">
+        <f>C39*0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G39" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H39" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="E40" s="35">
+        <f>C39*1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G40" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H40" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="34">
+        <f t="shared" ref="E41:E46" si="22">C41*0.8</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H41" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="51"/>
+      <c r="B42" s="37"/>
+      <c r="E42" s="35">
+        <f t="shared" ref="E42:E46" si="23">C41*1.2</f>
+        <v>0.12</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G42" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H42" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="51"/>
+      <c r="B43" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="34">
+        <f t="shared" ref="E43:E46" si="24">C43*0.8</f>
+        <v>2.8800000000000002E-5</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G43" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H43" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="51"/>
+      <c r="B44" s="37"/>
+      <c r="E44" s="35">
+        <f t="shared" ref="E44:E46" si="25">C43*1.2</f>
+        <v>4.32E-5</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H44" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I44" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="51"/>
+      <c r="B45" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="34">
+        <f t="shared" ref="E45:E46" si="26">C45*0.8</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G45" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H45" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="51"/>
+      <c r="B46" s="37"/>
+      <c r="E46" s="35">
+        <f t="shared" ref="E46" si="27">C45*1.2</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G46" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H46" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="51"/>
+      <c r="B47" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" s="34">
+        <f>C47-0.01</f>
+        <v>-0.01</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G47" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H47" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="51"/>
+      <c r="B48" s="37"/>
+      <c r="E48" s="35">
+        <f>C47+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G48" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H48" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="51"/>
+      <c r="B49" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49">
+        <v>2650</v>
+      </c>
+      <c r="D49" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="34">
+        <f>C49*0.8</f>
+        <v>2120</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G49" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H49" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="51"/>
+      <c r="B50" s="37"/>
+      <c r="E50" s="35">
+        <f>C49*1.2</f>
+        <v>3180</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G50" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H50" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="51"/>
+      <c r="B51" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51">
+        <v>0.65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="34">
+        <f t="shared" ref="E51:E64" si="28">C51*0.8</f>
+        <v>0.52</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G51" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H51" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I51" s="57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="51"/>
+      <c r="B52" s="37"/>
+      <c r="E52" s="35">
+        <f t="shared" ref="E52:E64" si="29">C51*1.2</f>
+        <v>0.78</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G52" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H52" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
+      <c r="B53" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C53">
+        <v>4600000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="34">
+        <f t="shared" ref="E53:E64" si="30">C53*0.8</f>
+        <v>3680000</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H53" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="51"/>
+      <c r="B54" s="37"/>
+      <c r="E54" s="35">
+        <f t="shared" ref="E54:E64" si="31">C53*1.2</f>
+        <v>5520000</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G54" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H54" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="51"/>
+      <c r="B55" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C55">
+        <v>7000000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>423</v>
+      </c>
+      <c r="E55" s="34">
+        <f t="shared" ref="E55:E64" si="32">C55*0.8</f>
+        <v>5600000</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G55" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H55" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I55" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="51"/>
+      <c r="B56" s="37"/>
+      <c r="E56" s="35">
+        <f t="shared" ref="E56:E64" si="33">C55*1.2</f>
+        <v>8400000</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G56" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H56" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="51"/>
+      <c r="B57" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57">
+        <v>2.7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>424</v>
+      </c>
+      <c r="E57" s="34">
+        <f t="shared" ref="E57:E64" si="34">C57*0.8</f>
+        <v>2.16</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G57" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H57" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="51"/>
+      <c r="B58" s="37"/>
+      <c r="E58" s="35">
+        <f t="shared" ref="E58:E64" si="35">C57*1.2</f>
+        <v>3.24</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G58" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H58" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="51"/>
+      <c r="B59" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C59">
+        <v>0.6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>424</v>
+      </c>
+      <c r="E59" s="34">
+        <f t="shared" ref="E59:E64" si="36">C59*0.8</f>
+        <v>0.48</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G59" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H59" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="51"/>
+      <c r="B60" s="37"/>
+      <c r="E60" s="35">
+        <f t="shared" ref="E60:E64" si="37">C59*1.2</f>
+        <v>0.72</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G60" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H60" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="51"/>
+      <c r="B61" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C61">
+        <v>334000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>425</v>
+      </c>
+      <c r="E61" s="34">
+        <f t="shared" ref="E61:E64" si="38">C61*0.8</f>
+        <v>267200</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G61" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H61" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="51"/>
+      <c r="B62" s="37"/>
+      <c r="E62" s="35">
+        <f t="shared" ref="E62:E64" si="39">C61*1.2</f>
+        <v>400800</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G62" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H62" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="51"/>
+      <c r="B63" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63">
+        <v>1000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63" s="34">
+        <f t="shared" ref="E63:E64" si="40">C63*0.8</f>
+        <v>800</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H63" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I63" s="57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="51"/>
+      <c r="B64" s="37"/>
+      <c r="E64" s="35">
+        <f t="shared" ref="E64" si="41">C63*1.2</f>
+        <v>1200</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G64" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H64" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="51"/>
+      <c r="B65" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="D65" t="s">
+        <v>426</v>
+      </c>
+      <c r="E65" s="34">
+        <f>C65*0.99</f>
+        <v>270.41849999999999</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G65" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H65" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="51"/>
+      <c r="B66" s="37"/>
+      <c r="E66" s="35">
+        <f>C65*1.01</f>
+        <v>275.88149999999996</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G66" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H66" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I66" s="57" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="51"/>
+      <c r="B67" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>427</v>
+      </c>
+      <c r="E67" s="34">
+        <f>C67*0.8</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H67" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="51"/>
+      <c r="B68" s="37"/>
+      <c r="E68" s="35">
+        <f>C67*1.2</f>
+        <v>0.03</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H68" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="51"/>
+      <c r="B69" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69">
+        <v>70.13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>402</v>
+      </c>
+      <c r="E69" s="34">
+        <f>C69*0.95</f>
+        <v>66.623499999999993</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H69" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I69" s="57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="54"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="74">
+        <f>C69*1.05</f>
+        <v>73.636499999999998</v>
+      </c>
+      <c r="F70" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="G70" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H70" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C71" s="37">
+        <v>0</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G71" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H71" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="J71" s="37"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="E72" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G72" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H72" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="51"/>
+      <c r="B73" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
+      <c r="D73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G73" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H73" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="E74" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H74" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I74" s="37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H75" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="E76" s="72" t="s">
+        <v>548</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G76" s="59">
+        <v>42736</v>
+      </c>
+      <c r="H76" s="59">
+        <v>43101</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="J76" s="39"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="C77" s="38">
+        <v>1</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G77" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H77" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77" s="37"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="B78" s="37"/>
+      <c r="E78" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G78" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H78" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I78" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="51"/>
+      <c r="B79" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" s="37">
+        <v>1</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G79" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H79" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I79" s="37" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="51"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G80" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H80" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="51"/>
+      <c r="B81" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="C81" s="37">
+        <v>1</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G81" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H81" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G82" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H82" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="C83" s="37">
+        <v>0</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G83" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H83" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G84" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H84" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="51"/>
+      <c r="B85" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="C85" s="37">
+        <v>0</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="F85" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G85" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H85" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I85" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="J85" s="37"/>
+    </row>
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="54"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="F86" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H86" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="J86" s="43"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G87" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H87" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="51"/>
+      <c r="B88" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C88" t="s">
+        <v>435</v>
+      </c>
+      <c r="D88" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G88" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H88" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="51"/>
+      <c r="B89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="51"/>
+      <c r="B90" s="37"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="51"/>
+      <c r="B91" s="37"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="51"/>
+      <c r="B92" s="37"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="51"/>
+      <c r="B93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="51"/>
+      <c r="B94" s="37"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="51"/>
+      <c r="B95" s="37"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="51"/>
+      <c r="B96" s="37"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="51"/>
+      <c r="B97" s="37"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="51"/>
+      <c r="B98" s="37"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="51"/>
+      <c r="B99" s="37"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="51"/>
+      <c r="B100" s="37"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="51"/>
+      <c r="B101" s="37"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="51"/>
+      <c r="B102" s="37"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="51"/>
+      <c r="B103" s="37"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="51"/>
+      <c r="B104" s="37"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="51"/>
+      <c r="B105" s="37"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="51"/>
+      <c r="B106" s="37"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="51"/>
+      <c r="B107" s="37"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="51"/>
+      <c r="B108" s="37"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="51"/>
+      <c r="B109" s="37"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="51"/>
+      <c r="B110" s="37"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="51"/>
+      <c r="B111" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1308" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A842E9-CAFE-4244-B37F-D8976D46D866}"/>
+  <xr:revisionPtr revIDLastSave="1775" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9232D7B0-8586-4E2F-B853-42F36A0EB377}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs1" sheetId="1" r:id="rId1"/>
     <sheet name="overview_runs2" sheetId="2" r:id="rId2"/>
     <sheet name="overview_runs_sensitivity" sheetId="3" r:id="rId3"/>
+    <sheet name="csv sa" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">overview_runs2!$A$1:$N$64</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="636">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -1744,6 +1745,216 @@
   </si>
   <si>
     <t>These three runs are done to showcase whether or not the thermal module is actually needed to yield accurate results. For these runs, structures in Xbeach are turned off.</t>
+  </si>
+  <si>
+    <t>Latent heat flux</t>
+  </si>
+  <si>
+    <t>sa_lvl2_17</t>
+  </si>
+  <si>
+    <t>sa_lvl2_18</t>
+  </si>
+  <si>
+    <t>varied_parameter</t>
+  </si>
+  <si>
+    <t>new_value_low</t>
+  </si>
+  <si>
+    <t>new_value_high</t>
+  </si>
+  <si>
+    <t>run_id_low</t>
+  </si>
+  <si>
+    <t>run_id_high</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>baseline_value</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>+-20%</t>
+  </si>
+  <si>
+    <t>+-10%</t>
+  </si>
+  <si>
+    <t>+-33%</t>
+  </si>
+  <si>
+    <t>+-0.01</t>
+  </si>
+  <si>
+    <t>+-1%</t>
+  </si>
+  <si>
+    <t>+-5%</t>
+  </si>
+  <si>
+    <t>+-0.1</t>
+  </si>
+  <si>
+    <t>+-2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>sublevel</t>
+  </si>
+  <si>
+    <t>bathymetry</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>hydrodynamics</t>
+  </si>
+  <si>
+    <t>thermodynamics</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>number_low</t>
+  </si>
+  <si>
+    <t>number_high</t>
+  </si>
+  <si>
+    <t>Bluff height</t>
+  </si>
+  <si>
+    <t>Bluff slope</t>
+  </si>
+  <si>
+    <t>Beach width</t>
+  </si>
+  <si>
+    <t>Beach slope</t>
+  </si>
+  <si>
+    <t>Maximum nearshore depth</t>
+  </si>
+  <si>
+    <t>Maximum offshore depth</t>
+  </si>
+  <si>
+    <t>Nearshore slope</t>
+  </si>
+  <si>
+    <t>Offshore slope</t>
+  </si>
+  <si>
+    <t>Continental flat width</t>
+  </si>
+  <si>
+    <t>Sea ice threshold</t>
+  </si>
+  <si>
+    <t>R2%-threshold</t>
+  </si>
+  <si>
+    <t>Surface flux factor</t>
+  </si>
+  <si>
+    <t>Surface flux angle</t>
+  </si>
+  <si>
+    <t>Grid resolution Xbeach</t>
+  </si>
+  <si>
+    <t>Grid resolution thermal module</t>
+  </si>
+  <si>
+    <t>Maximum depth thermal module</t>
+  </si>
+  <si>
+    <t>Thaw threshold</t>
+  </si>
+  <si>
+    <t>Inter-storm XBeach activatinos</t>
+  </si>
+  <si>
+    <t>Critical dry slope</t>
+  </si>
+  <si>
+    <t>Critical wet slope</t>
+  </si>
+  <si>
+    <t>Bed friction coefficient</t>
+  </si>
+  <si>
+    <t>Longshore transport gradient</t>
+  </si>
+  <si>
+    <t>Particle density sediment</t>
+  </si>
+  <si>
+    <t>Ice content</t>
+  </si>
+  <si>
+    <t>Volumetric heat capacity (frozen soil)</t>
+  </si>
+  <si>
+    <t>Volumetric heat capacity (unfrozen soil)</t>
+  </si>
+  <si>
+    <t>Thermal conductivity (frozen soil)</t>
+  </si>
+  <si>
+    <t>Thermal conductivity (unfrozen soil)</t>
+  </si>
+  <si>
+    <t>Latent heat of fusion</t>
+  </si>
+  <si>
+    <t>Density water</t>
+  </si>
+  <si>
+    <t>Melting temperature water</t>
+  </si>
+  <si>
+    <t>Geothermal gradient</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Water level</t>
+  </si>
+  <si>
+    <t>Wave height</t>
+  </si>
+  <si>
+    <t>Wave period</t>
+  </si>
+  <si>
+    <t>Convective heat flux</t>
+  </si>
+  <si>
+    <t>Longwave heat flux</t>
+  </si>
+  <si>
+    <t>Shortwave heat flux</t>
+  </si>
+  <si>
+    <t>2m air temperature</t>
+  </si>
+  <si>
+    <t>Sea temperature</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +2117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2116,8 +2327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2383,6 +2600,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2428,7 +2665,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2480,28 +2717,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -2514,37 +2745,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="19" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2590,7 +2827,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2662,10 +2913,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -2693,20 +2940,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}" name="overview_runs" displayName="overview_runs" ref="A1:N64" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:N64" xr:uid="{4D692A7B-A6C5-41AA-A7C8-8EFD2BC34AAF}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FBE5B0F6-0C43-4986-B73B-7AF5D6E03AB1}" uniqueName="1" name="run_id" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4CCC7AF7-3469-4B96-A652-EA36B38CE976}" uniqueName="2" name="Run done?" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{46F8B739-DA88-47AA-AFA1-33CDA573621E}" uniqueName="3" name="t_start" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7E93C469-DCA2-46FF-9D96-8A54E5DA317D}" uniqueName="4" name="t_end" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{1CEA6FCD-46CD-47DB-BA27-194DF50C2DF3}" uniqueName="5" name="description" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{96686839-3084-4A1F-856F-D4361C25D5FA}" uniqueName="6" name="Result interpretation" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4081C439-4753-405E-AF0D-2B097433B57E}" uniqueName="7" name="_1" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{DF7FDA72-7DCE-410C-A691-A70C7F3278D3}" uniqueName="8" name="_3" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{3E902B63-1F9F-41E2-A4BF-60D0E33B320C}" uniqueName="9" name="_4" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{47AD3BB5-933D-4516-9CE8-D2DF8E8484A3}" uniqueName="10" name="_5" queryTableFieldId="10" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{DCA43BF2-2100-4DA2-A135-03D3E51FAD07}" uniqueName="11" name="_6" queryTableFieldId="11" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{6A4AFB09-1817-4575-BB30-DF8C1B5156B2}" uniqueName="12" name="_7" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{96860A53-4017-4086-81CB-1927DFFA9764}" uniqueName="13" name="_8" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{438B3ECA-A5E6-4FE9-890C-0D6216396AFC}" uniqueName="14" name="_9" queryTableFieldId="14" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7198,7 +7445,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="79" t="s">
+      <c r="A121" t="s">
         <v>562</v>
       </c>
       <c r="C121" s="1">
@@ -7231,10 +7478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75F9AE4-E009-4C46-8040-45DAE518B9F1}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7252,53 +7499,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="38" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="46" t="s">
         <v>373</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -7310,11 +7557,11 @@
       <c r="D3" t="s">
         <v>401</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <f>C3*0.8</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="67" t="s">
         <v>552</v>
       </c>
       <c r="G3" s="31">
@@ -7323,19 +7570,19 @@
       <c r="H3" s="31">
         <v>43101</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="55" t="s">
         <v>530</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <f>C3*1.2</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G4" s="31">
@@ -7349,7 +7596,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32" t="s">
         <v>385</v>
       </c>
@@ -7359,11 +7606,11 @@
       <c r="D5" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f>C5*0.8</f>
         <v>0.8</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G5" s="31">
@@ -7375,20 +7622,20 @@
       <c r="I5" t="s">
         <v>446</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="69" t="s">
         <v>560</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="68" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="E6" s="35">
+      <c r="A6" s="47"/>
+      <c r="E6" s="34">
         <f>C5*1.2</f>
         <v>1.2</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G6" s="31">
@@ -7397,12 +7644,12 @@
       <c r="H6" s="31">
         <v>43101</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="32" t="s">
         <v>384</v>
       </c>
@@ -7412,11 +7659,11 @@
       <c r="D7" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f>C7*0.8</f>
         <v>10</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G7" s="31">
@@ -7430,12 +7677,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
-      <c r="E8" s="35">
+      <c r="A8" s="55"/>
+      <c r="E8" s="34">
         <f>C7*1.2</f>
         <v>15</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G8" s="31">
@@ -7449,7 +7696,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="32" t="s">
         <v>383</v>
       </c>
@@ -7459,11 +7706,11 @@
       <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="34">
-        <f t="shared" ref="E9:E20" si="0">C9*0.8</f>
+      <c r="E9" s="33">
+        <f t="shared" ref="E9" si="0">C9*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G9" s="31">
@@ -7472,17 +7719,17 @@
       <c r="H9" s="31">
         <v>43101</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="E10" s="35">
-        <f t="shared" ref="E10:E20" si="1">C9*1.2</f>
+      <c r="A10" s="47"/>
+      <c r="E10" s="34">
+        <f t="shared" ref="E10" si="1">C9*1.2</f>
         <v>0.12</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G10" s="31">
@@ -7496,7 +7743,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="32" t="s">
         <v>382</v>
       </c>
@@ -7506,11 +7753,11 @@
       <c r="D11" t="s">
         <v>401</v>
       </c>
-      <c r="E11" s="34">
-        <f t="shared" ref="E11:E20" si="2">C11*0.8</f>
+      <c r="E11" s="33">
+        <f t="shared" ref="E11" si="2">C11*0.8</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G11" s="31">
@@ -7524,12 +7771,12 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
-      <c r="E12" s="35">
-        <f t="shared" ref="E12:E20" si="3">C11*1.2</f>
+      <c r="A12" s="47"/>
+      <c r="E12" s="34">
+        <f t="shared" ref="E12" si="3">C11*1.2</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G12" s="31">
@@ -7538,12 +7785,12 @@
       <c r="H12" s="31">
         <v>43101</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="32" t="s">
         <v>381</v>
       </c>
@@ -7553,11 +7800,11 @@
       <c r="D13" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="34">
-        <f t="shared" ref="E13:E20" si="4">C13*0.8</f>
+      <c r="E13" s="33">
+        <f t="shared" ref="E13" si="4">C13*0.8</f>
         <v>2.4E-2</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G13" s="31">
@@ -7571,12 +7818,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="E14" s="35">
-        <f t="shared" ref="E14:E20" si="5">C13*1.2</f>
+      <c r="A14" s="47"/>
+      <c r="E14" s="34">
+        <f t="shared" ref="E14" si="5">C13*1.2</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G14" s="31">
@@ -7590,7 +7837,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="32" t="s">
         <v>380</v>
       </c>
@@ -7600,11 +7847,11 @@
       <c r="D15" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="34">
-        <f t="shared" ref="E15:E20" si="6">C15*0.8</f>
+      <c r="E15" s="33">
+        <f t="shared" ref="E15" si="6">C15*0.8</f>
         <v>4</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G15" s="31">
@@ -7613,17 +7860,17 @@
       <c r="H15" s="31">
         <v>43101</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="E16" s="35">
-        <f t="shared" ref="E16:E20" si="7">C15*1.2</f>
+      <c r="A16" s="47"/>
+      <c r="E16" s="34">
+        <f t="shared" ref="E16" si="7">C15*1.2</f>
         <v>6</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G16" s="31">
@@ -7637,7 +7884,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="32" t="s">
         <v>379</v>
       </c>
@@ -7647,11 +7894,11 @@
       <c r="D17" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="34">
-        <f t="shared" ref="E17:E20" si="8">C17*0.8</f>
+      <c r="E17" s="33">
+        <f t="shared" ref="E17" si="8">C17*0.8</f>
         <v>5.6000000000000008E-3</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G17" s="31">
@@ -7665,13 +7912,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="37"/>
-      <c r="E18" s="35">
-        <f t="shared" ref="E18:E20" si="9">C17*1.2</f>
+      <c r="A18" s="47"/>
+      <c r="E18" s="34">
+        <f t="shared" ref="E18" si="9">C17*1.2</f>
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G18" s="31">
@@ -7680,13 +7926,13 @@
       <c r="H18" s="31">
         <v>43101</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="32" t="s">
         <v>378</v>
       </c>
       <c r="C19">
@@ -7695,11 +7941,11 @@
       <c r="D19" t="s">
         <v>401</v>
       </c>
-      <c r="E19" s="34">
-        <f t="shared" ref="E19:E20" si="10">C19*0.8</f>
+      <c r="E19" s="33">
+        <f t="shared" ref="E19" si="10">C19*0.8</f>
         <v>320</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G19" s="31">
@@ -7713,45 +7959,45 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="73">
+      <c r="A20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="65">
         <f t="shared" ref="E20" si="11">C19*1.2</f>
         <v>480</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G20" s="59">
-        <v>42736</v>
-      </c>
-      <c r="H20" s="59">
-        <v>43101</v>
-      </c>
-      <c r="I20" s="39" t="s">
+      <c r="G20" s="54">
+        <v>42736</v>
+      </c>
+      <c r="H20" s="54">
+        <v>43101</v>
+      </c>
+      <c r="I20" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="J20" s="39"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="36">
         <v>0.85</v>
       </c>
       <c r="D21" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f>C21 *0.9</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="61" t="s">
         <v>552</v>
       </c>
       <c r="G21" s="31">
@@ -7760,21 +8006,19 @@
       <c r="H21" s="31">
         <v>43101</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <f>C21*1.1</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G22" s="31">
@@ -7788,10 +8032,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="55" t="s">
         <v>551</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" t="s">
         <v>397</v>
       </c>
       <c r="C23">
@@ -7800,11 +8044,11 @@
       <c r="D23" t="s">
         <v>401</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f>C23*0.9</f>
         <v>0.9</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G23" s="31">
@@ -7818,13 +8062,12 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="37"/>
-      <c r="E24" s="35">
+      <c r="A24" s="47"/>
+      <c r="E24" s="34">
         <f>C23*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G24" s="31">
@@ -7833,116 +8076,116 @@
       <c r="H24" s="31">
         <v>43101</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="57">
         <v>1</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="34">
-        <f t="shared" ref="E25:E34" si="12">C25*0.9</f>
+      <c r="E25" s="33">
+        <f t="shared" ref="E25" si="12">C25*0.9</f>
         <v>0.9</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G25" s="64">
-        <v>42736</v>
-      </c>
-      <c r="H25" s="64">
-        <v>43101</v>
-      </c>
-      <c r="I25" s="63" t="s">
+      <c r="G25" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H25" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I25" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="J25" s="63"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="35">
-        <f t="shared" ref="E26:E34" si="13">C25*1.1</f>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="34">
+        <f t="shared" ref="E26" si="13">C25*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G26" s="64">
-        <v>42736</v>
-      </c>
-      <c r="H26" s="64">
-        <v>43101</v>
-      </c>
-      <c r="I26" s="63" t="s">
+      <c r="G26" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H26" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I26" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="57">
         <v>20</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="E27" s="34">
-        <f t="shared" ref="E27:E34" si="14">C27*0.9</f>
+      <c r="E27" s="33">
+        <f t="shared" ref="E27" si="14">C27*0.9</f>
         <v>18</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G27" s="64">
-        <v>42736</v>
-      </c>
-      <c r="H27" s="64">
-        <v>43101</v>
-      </c>
-      <c r="I27" s="65" t="s">
+      <c r="G27" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H27" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="J27" s="63"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="35">
-        <f t="shared" ref="E28:E34" si="15">C27*1.1</f>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="34">
+        <f t="shared" ref="E28" si="15">C27*1.1</f>
         <v>22</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G28" s="64">
-        <v>42736</v>
-      </c>
-      <c r="H28" s="64">
-        <v>43101</v>
-      </c>
-      <c r="I28" s="63" t="s">
+      <c r="G28" s="58">
+        <v>42736</v>
+      </c>
+      <c r="H28" s="58">
+        <v>43101</v>
+      </c>
+      <c r="I28" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="J28" s="63"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
+      <c r="A29" s="47"/>
       <c r="B29" t="s">
         <v>398</v>
       </c>
@@ -7952,11 +8195,11 @@
       <c r="D29" t="s">
         <v>403</v>
       </c>
-      <c r="E29" s="34">
-        <f t="shared" ref="E29:E34" si="16">C29*0.9</f>
+      <c r="E29" s="33">
+        <f t="shared" ref="E29" si="16">C29*0.9</f>
         <v>36</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G29" s="31">
@@ -7970,12 +8213,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="E30" s="35">
-        <f t="shared" ref="E30:E34" si="17">C29*1.1</f>
+      <c r="A30" s="47"/>
+      <c r="E30" s="34">
+        <f t="shared" ref="E30" si="17">C29*1.1</f>
         <v>44</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G30" s="31">
@@ -7984,13 +8227,13 @@
       <c r="H30" s="31">
         <v>43101</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="3" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="32" t="s">
         <v>399</v>
       </c>
       <c r="C31">
@@ -7999,11 +8242,11 @@
       <c r="D31" t="s">
         <v>404</v>
       </c>
-      <c r="E31" s="34">
-        <f t="shared" ref="E31:E34" si="18">C31*0.9</f>
+      <c r="E31" s="33">
+        <f t="shared" ref="E31" si="18">C31*0.9</f>
         <v>135</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G31" s="31">
@@ -8017,13 +8260,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
-      <c r="B32" s="37"/>
-      <c r="E32" s="35">
-        <f t="shared" ref="E32:E34" si="19">C31*1.1</f>
+      <c r="A32" s="47"/>
+      <c r="E32" s="34">
+        <f t="shared" ref="E32" si="19">C31*1.1</f>
         <v>165</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G32" s="31">
@@ -8037,8 +8279,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="32" t="s">
         <v>395</v>
       </c>
       <c r="C33">
@@ -8047,11 +8289,11 @@
       <c r="D33" t="s">
         <v>401</v>
       </c>
-      <c r="E33" s="34">
-        <f t="shared" ref="E33:E34" si="20">C33*0.9</f>
+      <c r="E33" s="33">
+        <f t="shared" ref="E33" si="20">C33*0.9</f>
         <v>13.5</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G33" s="31">
@@ -8060,18 +8302,17 @@
       <c r="H33" s="31">
         <v>43101</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="37"/>
-      <c r="E34" s="35">
+      <c r="A34" s="47"/>
+      <c r="E34" s="34">
         <f t="shared" ref="E34" si="21">C33*1.1</f>
         <v>16.5</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G34" s="31">
@@ -8085,21 +8326,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" t="s">
         <v>404</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <f>C35*2/3</f>
         <v>2</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G35" s="31">
@@ -8111,16 +8352,14 @@
       <c r="I35" t="s">
         <v>476</v>
       </c>
-      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="37"/>
-      <c r="E36" s="35">
+      <c r="A36" s="47"/>
+      <c r="E36" s="34">
         <f>C35*4/3</f>
         <v>4</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G36" s="31">
@@ -8129,13 +8368,13 @@
       <c r="H36" s="31">
         <v>43101</v>
       </c>
-      <c r="I36" s="57" t="s">
+      <c r="I36" s="3" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" t="s">
         <v>439</v>
       </c>
       <c r="C37">
@@ -8144,11 +8383,11 @@
       <c r="D37" t="s">
         <v>440</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <f>C37*0.9</f>
         <v>151.20000000000002</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G37" s="31">
@@ -8162,33 +8401,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="53"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="73">
+      <c r="A38" s="49"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="65">
         <f>C37*1.1</f>
         <v>184.8</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="62" t="s">
         <v>552</v>
       </c>
-      <c r="G38" s="59">
-        <v>42736</v>
-      </c>
-      <c r="H38" s="59">
-        <v>43101</v>
-      </c>
-      <c r="I38" s="39" t="s">
+      <c r="G38" s="54">
+        <v>42736</v>
+      </c>
+      <c r="H38" s="54">
+        <v>43101</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="J38" s="39"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="43" t="s">
         <v>415</v>
       </c>
       <c r="C39">
@@ -8197,11 +8436,11 @@
       <c r="D39" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <f>C39*0.8</f>
         <v>0.8</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G39" s="31">
@@ -8210,20 +8449,19 @@
       <c r="H39" s="31">
         <v>43101</v>
       </c>
-      <c r="I39" s="57" t="s">
+      <c r="I39" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="E40" s="35">
+      <c r="E40" s="34">
         <f>C39*1.2</f>
         <v>1.2</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G40" s="31">
@@ -8237,10 +8475,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="32" t="s">
         <v>414</v>
       </c>
       <c r="C41">
@@ -8249,11 +8487,11 @@
       <c r="D41" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="34">
-        <f t="shared" ref="E41:E46" si="22">C41*0.8</f>
+      <c r="E41" s="33">
+        <f t="shared" ref="E41" si="22">C41*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G41" s="31">
@@ -8267,13 +8505,12 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
-      <c r="B42" s="37"/>
-      <c r="E42" s="35">
-        <f t="shared" ref="E42:E46" si="23">C41*1.2</f>
+      <c r="A42" s="47"/>
+      <c r="E42" s="34">
+        <f t="shared" ref="E42" si="23">C41*1.2</f>
         <v>0.12</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G42" s="31">
@@ -8282,13 +8519,13 @@
       <c r="H42" s="31">
         <v>43101</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="32" t="s">
         <v>413</v>
       </c>
       <c r="C43">
@@ -8297,11 +8534,11 @@
       <c r="D43" t="s">
         <v>401</v>
       </c>
-      <c r="E43" s="34">
-        <f t="shared" ref="E43:E46" si="24">C43*0.8</f>
+      <c r="E43" s="33">
+        <f t="shared" ref="E43" si="24">C43*0.8</f>
         <v>2.8800000000000002E-5</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G43" s="31">
@@ -8315,13 +8552,12 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
-      <c r="B44" s="37"/>
-      <c r="E44" s="35">
-        <f t="shared" ref="E44:E46" si="25">C43*1.2</f>
+      <c r="A44" s="47"/>
+      <c r="E44" s="34">
+        <f t="shared" ref="E44" si="25">C43*1.2</f>
         <v>4.32E-5</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G44" s="31">
@@ -8335,8 +8571,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="51"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="32" t="s">
         <v>412</v>
       </c>
       <c r="C45">
@@ -8345,11 +8581,11 @@
       <c r="D45" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="34">
-        <f t="shared" ref="E45:E46" si="26">C45*0.8</f>
+      <c r="E45" s="33">
+        <f t="shared" ref="E45" si="26">C45*0.8</f>
         <v>1.6E-2</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G45" s="31">
@@ -8358,18 +8594,17 @@
       <c r="H45" s="31">
         <v>43101</v>
       </c>
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="51"/>
-      <c r="B46" s="37"/>
-      <c r="E46" s="35">
+      <c r="A46" s="47"/>
+      <c r="E46" s="34">
         <f t="shared" ref="E46" si="27">C45*1.2</f>
         <v>2.4E-2</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G46" s="31">
@@ -8383,8 +8618,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="51"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="32" t="s">
         <v>411</v>
       </c>
       <c r="C47">
@@ -8393,11 +8628,11 @@
       <c r="D47" t="s">
         <v>421</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <f>C47-0.01</f>
         <v>-0.01</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G47" s="31">
@@ -8411,13 +8646,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="51"/>
-      <c r="B48" s="37"/>
-      <c r="E48" s="35">
+      <c r="A48" s="47"/>
+      <c r="E48" s="34">
         <f>C47+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G48" s="31">
@@ -8426,13 +8660,13 @@
       <c r="H48" s="31">
         <v>43101</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="51"/>
-      <c r="B49" s="40" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="32" t="s">
         <v>410</v>
       </c>
       <c r="C49">
@@ -8441,11 +8675,11 @@
       <c r="D49" t="s">
         <v>422</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <f>C49*0.8</f>
         <v>2120</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G49" s="31">
@@ -8459,13 +8693,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="51"/>
-      <c r="B50" s="37"/>
-      <c r="E50" s="35">
+      <c r="A50" s="47"/>
+      <c r="E50" s="34">
         <f>C49*1.2</f>
         <v>3180</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G50" s="31">
@@ -8479,8 +8712,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="51"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="32" t="s">
         <v>409</v>
       </c>
       <c r="C51">
@@ -8489,11 +8722,11 @@
       <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="34">
-        <f t="shared" ref="E51:E64" si="28">C51*0.8</f>
+      <c r="E51" s="33">
+        <f t="shared" ref="E51" si="28">C51*0.8</f>
         <v>0.52</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G51" s="31">
@@ -8502,18 +8735,17 @@
       <c r="H51" s="31">
         <v>43101</v>
       </c>
-      <c r="I51" s="57" t="s">
+      <c r="I51" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="51"/>
-      <c r="B52" s="37"/>
-      <c r="E52" s="35">
-        <f t="shared" ref="E52:E64" si="29">C51*1.2</f>
+      <c r="A52" s="47"/>
+      <c r="E52" s="34">
+        <f t="shared" ref="E52" si="29">C51*1.2</f>
         <v>0.78</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G52" s="31">
@@ -8527,8 +8759,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="51"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="32" t="s">
         <v>408</v>
       </c>
       <c r="C53">
@@ -8537,11 +8769,11 @@
       <c r="D53" t="s">
         <v>423</v>
       </c>
-      <c r="E53" s="34">
-        <f t="shared" ref="E53:E64" si="30">C53*0.8</f>
+      <c r="E53" s="33">
+        <f t="shared" ref="E53" si="30">C53*0.8</f>
         <v>3680000</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G53" s="31">
@@ -8555,13 +8787,12 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="51"/>
-      <c r="B54" s="37"/>
-      <c r="E54" s="35">
-        <f t="shared" ref="E54:E64" si="31">C53*1.2</f>
+      <c r="A54" s="47"/>
+      <c r="E54" s="34">
+        <f t="shared" ref="E54" si="31">C53*1.2</f>
         <v>5520000</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G54" s="31">
@@ -8570,13 +8801,13 @@
       <c r="H54" s="31">
         <v>43101</v>
       </c>
-      <c r="I54" s="57" t="s">
+      <c r="I54" s="3" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="51"/>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="32" t="s">
         <v>407</v>
       </c>
       <c r="C55">
@@ -8585,11 +8816,11 @@
       <c r="D55" t="s">
         <v>423</v>
       </c>
-      <c r="E55" s="34">
-        <f t="shared" ref="E55:E64" si="32">C55*0.8</f>
+      <c r="E55" s="33">
+        <f t="shared" ref="E55" si="32">C55*0.8</f>
         <v>5600000</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G55" s="31">
@@ -8603,13 +8834,12 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="51"/>
-      <c r="B56" s="37"/>
-      <c r="E56" s="35">
-        <f t="shared" ref="E56:E64" si="33">C55*1.2</f>
+      <c r="A56" s="47"/>
+      <c r="E56" s="34">
+        <f t="shared" ref="E56" si="33">C55*1.2</f>
         <v>8400000</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G56" s="31">
@@ -8623,8 +8853,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="51"/>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="32" t="s">
         <v>419</v>
       </c>
       <c r="C57">
@@ -8633,11 +8863,11 @@
       <c r="D57" t="s">
         <v>424</v>
       </c>
-      <c r="E57" s="34">
-        <f t="shared" ref="E57:E64" si="34">C57*0.8</f>
+      <c r="E57" s="33">
+        <f t="shared" ref="E57" si="34">C57*0.8</f>
         <v>2.16</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G57" s="31">
@@ -8646,18 +8876,17 @@
       <c r="H57" s="31">
         <v>43101</v>
       </c>
-      <c r="I57" s="57" t="s">
+      <c r="I57" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="51"/>
-      <c r="B58" s="37"/>
-      <c r="E58" s="35">
-        <f t="shared" ref="E58:E64" si="35">C57*1.2</f>
+      <c r="A58" s="47"/>
+      <c r="E58" s="34">
+        <f t="shared" ref="E58" si="35">C57*1.2</f>
         <v>3.24</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G58" s="31">
@@ -8671,8 +8900,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="51"/>
-      <c r="B59" s="40" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="32" t="s">
         <v>420</v>
       </c>
       <c r="C59">
@@ -8681,11 +8910,11 @@
       <c r="D59" t="s">
         <v>424</v>
       </c>
-      <c r="E59" s="34">
-        <f t="shared" ref="E59:E64" si="36">C59*0.8</f>
+      <c r="E59" s="33">
+        <f t="shared" ref="E59" si="36">C59*0.8</f>
         <v>0.48</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G59" s="31">
@@ -8699,13 +8928,12 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="51"/>
-      <c r="B60" s="37"/>
-      <c r="E60" s="35">
-        <f t="shared" ref="E60:E64" si="37">C59*1.2</f>
+      <c r="A60" s="47"/>
+      <c r="E60" s="34">
+        <f t="shared" ref="E60" si="37">C59*1.2</f>
         <v>0.72</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G60" s="31">
@@ -8714,13 +8942,13 @@
       <c r="H60" s="31">
         <v>43101</v>
       </c>
-      <c r="I60" s="57" t="s">
+      <c r="I60" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="51"/>
-      <c r="B61" s="48" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="44" t="s">
         <v>418</v>
       </c>
       <c r="C61">
@@ -8729,11 +8957,11 @@
       <c r="D61" t="s">
         <v>425</v>
       </c>
-      <c r="E61" s="34">
-        <f t="shared" ref="E61:E64" si="38">C61*0.8</f>
+      <c r="E61" s="33">
+        <f t="shared" ref="E61" si="38">C61*0.8</f>
         <v>267200</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G61" s="31">
@@ -8747,13 +8975,12 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="51"/>
-      <c r="B62" s="37"/>
-      <c r="E62" s="35">
-        <f t="shared" ref="E62:E64" si="39">C61*1.2</f>
+      <c r="A62" s="47"/>
+      <c r="E62" s="34">
+        <f t="shared" ref="E62" si="39">C61*1.2</f>
         <v>400800</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G62" s="31">
@@ -8767,8 +8994,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="51"/>
-      <c r="B63" s="37" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" t="s">
         <v>417</v>
       </c>
       <c r="C63">
@@ -8777,11 +9004,11 @@
       <c r="D63" t="s">
         <v>422</v>
       </c>
-      <c r="E63" s="34">
-        <f t="shared" ref="E63:E64" si="40">C63*0.8</f>
+      <c r="E63" s="33">
+        <f t="shared" ref="E63" si="40">C63*0.8</f>
         <v>800</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G63" s="31">
@@ -8790,18 +9017,17 @@
       <c r="H63" s="31">
         <v>43101</v>
       </c>
-      <c r="I63" s="57" t="s">
+      <c r="I63" s="3" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="51"/>
-      <c r="B64" s="37"/>
-      <c r="E64" s="35">
+      <c r="A64" s="47"/>
+      <c r="E64" s="34">
         <f t="shared" ref="E64" si="41">C63*1.2</f>
         <v>1200</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G64" s="31">
@@ -8815,8 +9041,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="51"/>
-      <c r="B65" s="37" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" t="s">
         <v>416</v>
       </c>
       <c r="C65">
@@ -8825,11 +9051,11 @@
       <c r="D65" t="s">
         <v>426</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <f>C65*0.99</f>
         <v>270.41849999999999</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G65" s="31">
@@ -8843,13 +9069,12 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="51"/>
-      <c r="B66" s="37"/>
-      <c r="E66" s="35">
+      <c r="A66" s="47"/>
+      <c r="E66" s="34">
         <f>C65*1.01</f>
         <v>275.88149999999996</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G66" s="31">
@@ -8858,13 +9083,13 @@
       <c r="H66" s="31">
         <v>43101</v>
       </c>
-      <c r="I66" s="57" t="s">
+      <c r="I66" s="3" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="51"/>
-      <c r="B67" s="40" t="s">
+      <c r="A67" s="47"/>
+      <c r="B67" s="32" t="s">
         <v>406</v>
       </c>
       <c r="C67">
@@ -8873,11 +9098,11 @@
       <c r="D67" t="s">
         <v>427</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="33">
         <f>C67*0.8</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G67" s="31">
@@ -8891,13 +9116,12 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="51"/>
-      <c r="B68" s="37"/>
-      <c r="E68" s="35">
+      <c r="A68" s="47"/>
+      <c r="E68" s="34">
         <f>C67*1.2</f>
         <v>0.03</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G68" s="31">
@@ -8911,8 +9135,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="51"/>
-      <c r="B69" s="37" t="s">
+      <c r="A69" s="47"/>
+      <c r="B69" t="s">
         <v>441</v>
       </c>
       <c r="C69">
@@ -8921,11 +9145,11 @@
       <c r="D69" t="s">
         <v>402</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="33">
         <f>C69*0.95</f>
         <v>66.623499999999993</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G69" s="31">
@@ -8934,50 +9158,50 @@
       <c r="H69" s="31">
         <v>43101</v>
       </c>
-      <c r="I69" s="57" t="s">
+      <c r="I69" s="3" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="54"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="74">
+      <c r="A70" s="50"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="66">
         <f>C69*1.05</f>
         <v>73.636499999999998</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="G70" s="58">
-        <v>42736</v>
-      </c>
-      <c r="H70" s="58">
-        <v>43101</v>
-      </c>
-      <c r="I70" s="43" t="s">
+      <c r="G70" s="53">
+        <v>42736</v>
+      </c>
+      <c r="H70" s="53">
+        <v>43101</v>
+      </c>
+      <c r="I70" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="J70" s="43"/>
+      <c r="J70" s="40"/>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" t="s">
         <v>542</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" t="s">
         <v>172</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="F71" s="69" t="s">
+      <c r="F71" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G71" s="31">
@@ -8986,20 +9210,18 @@
       <c r="H71" s="31">
         <v>43101</v>
       </c>
-      <c r="I71" s="37" t="s">
+      <c r="I71" t="s">
         <v>512</v>
       </c>
-      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="E72" s="67" t="s">
+      <c r="E72" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G72" s="31">
@@ -9008,13 +9230,13 @@
       <c r="H72" s="31">
         <v>43101</v>
       </c>
-      <c r="I72" s="37" t="s">
+      <c r="I72" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="51"/>
-      <c r="B73" s="37" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" t="s">
         <v>536</v>
       </c>
       <c r="C73">
@@ -9023,10 +9245,10 @@
       <c r="D73" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G73" s="31">
@@ -9035,19 +9257,18 @@
       <c r="H73" s="31">
         <v>43101</v>
       </c>
-      <c r="I73" s="37" t="s">
+      <c r="I73" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="E74" s="67" t="s">
+      <c r="E74" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G74" s="31">
@@ -9056,15 +9277,15 @@
       <c r="H74" s="31">
         <v>43101</v>
       </c>
-      <c r="I74" s="37" t="s">
+      <c r="I74" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="52" t="s">
         <v>545</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" t="s">
         <v>537</v>
       </c>
       <c r="C75">
@@ -9073,10 +9294,10 @@
       <c r="D75" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G75" s="31">
@@ -9085,49 +9306,48 @@
       <c r="H75" s="31">
         <v>43101</v>
       </c>
-      <c r="I75" s="37" t="s">
+      <c r="I75" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="E76" s="72" t="s">
+      <c r="E76" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G76" s="59">
-        <v>42736</v>
-      </c>
-      <c r="H76" s="59">
-        <v>43101</v>
-      </c>
-      <c r="I76" s="39" t="s">
+      <c r="G76" s="54">
+        <v>42736</v>
+      </c>
+      <c r="H76" s="54">
+        <v>43101</v>
+      </c>
+      <c r="I76" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="J76" s="39"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="36">
         <v>1</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="61" t="s">
         <v>552</v>
       </c>
       <c r="G77" s="31">
@@ -9136,20 +9356,18 @@
       <c r="H77" s="31">
         <v>43101</v>
       </c>
-      <c r="I77" s="37" t="s">
+      <c r="I77" t="s">
         <v>518</v>
       </c>
-      <c r="J77" s="37"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="E78" s="67" t="s">
+      <c r="E78" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G78" s="31">
@@ -9158,25 +9376,25 @@
       <c r="H78" s="31">
         <v>43101</v>
       </c>
-      <c r="I78" s="37" t="s">
+      <c r="I78" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="51"/>
-      <c r="B79" s="37" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" t="s">
         <v>539</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="37" t="s">
+      <c r="D79" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G79" s="31">
@@ -9185,19 +9403,16 @@
       <c r="H79" s="31">
         <v>43101</v>
       </c>
-      <c r="I79" s="37" t="s">
+      <c r="I79" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="51"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="67" t="s">
+      <c r="A80" s="47"/>
+      <c r="E80" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="F80" s="36" t="s">
+      <c r="F80" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G80" s="31">
@@ -9206,25 +9421,25 @@
       <c r="H80" s="31">
         <v>43101</v>
       </c>
-      <c r="I80" s="37" t="s">
+      <c r="I80" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="51"/>
-      <c r="B81" s="37" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" t="s">
         <v>540</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G81" s="31">
@@ -9233,21 +9448,18 @@
       <c r="H81" s="31">
         <v>43101</v>
       </c>
-      <c r="I81" s="37" t="s">
+      <c r="I81" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="F82" s="36" t="s">
+      <c r="F82" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G82" s="31">
@@ -9256,27 +9468,27 @@
       <c r="H82" s="31">
         <v>43101</v>
       </c>
-      <c r="I82" s="37" t="s">
+      <c r="I82" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" t="s">
         <v>543</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83">
         <v>0</v>
       </c>
-      <c r="D83" s="37" t="s">
+      <c r="D83" t="s">
         <v>172</v>
       </c>
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="F83" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G83" s="31">
@@ -9285,21 +9497,18 @@
       <c r="H83" s="31">
         <v>43101</v>
       </c>
-      <c r="I83" s="37" t="s">
+      <c r="I83" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="60" t="s">
         <v>550</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F84" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G84" s="31">
@@ -9308,25 +9517,25 @@
       <c r="H84" s="31">
         <v>43101</v>
       </c>
-      <c r="I84" s="37" t="s">
+      <c r="I84" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="51"/>
-      <c r="B85" s="37" t="s">
+      <c r="A85" s="47"/>
+      <c r="B85" t="s">
         <v>544</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85">
         <v>0</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="66" t="s">
+      <c r="E85" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="F85" s="69" t="s">
+      <c r="F85" s="35" t="s">
         <v>552</v>
       </c>
       <c r="G85" s="31">
@@ -9335,184 +9544,2395 @@
       <c r="H85" s="31">
         <v>43101</v>
       </c>
-      <c r="I85" s="37" t="s">
+      <c r="I85" t="s">
         <v>526</v>
       </c>
-      <c r="J85" s="37"/>
-    </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="54"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="75" t="s">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="70"/>
+      <c r="E86" s="60" t="s">
         <v>550</v>
       </c>
-      <c r="F86" s="71" t="s">
+      <c r="F86" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="G86" s="58">
-        <v>42736</v>
-      </c>
-      <c r="H86" s="58">
-        <v>43101</v>
-      </c>
-      <c r="I86" s="43" t="s">
+      <c r="G86" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H86" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I86" t="s">
         <v>527</v>
       </c>
-      <c r="J86" s="43"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C87" t="s">
-        <v>435</v>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
       </c>
       <c r="D87" t="s">
         <v>172</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="G87" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H87" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I87" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="71"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="66" t="s">
+        <v>548</v>
+      </c>
+      <c r="F88" s="72" t="s">
+        <v>552</v>
+      </c>
+      <c r="G88" s="73">
+        <v>42736</v>
+      </c>
+      <c r="H88" s="73">
+        <v>43101</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="B89" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" t="s">
+        <v>435</v>
+      </c>
+      <c r="D89" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F87" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="G87" s="31">
-        <v>42736</v>
-      </c>
-      <c r="H87" s="31">
-        <v>43101</v>
-      </c>
-      <c r="I87" s="37" t="s">
+      <c r="F89" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H89" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I89" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="51"/>
-      <c r="B88" s="37" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="47"/>
+      <c r="B90" t="s">
         <v>434</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>435</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E90" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F88" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="G88" s="31">
-        <v>42736</v>
-      </c>
-      <c r="H88" s="31">
-        <v>43101</v>
-      </c>
-      <c r="I88" s="37" t="s">
+      <c r="F90" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="31">
+        <v>42736</v>
+      </c>
+      <c r="H90" s="31">
+        <v>43101</v>
+      </c>
+      <c r="I90" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="51"/>
-      <c r="B89" s="37"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="51"/>
-      <c r="B90" s="37"/>
-    </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="51"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="47"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="51"/>
-      <c r="B92" s="37"/>
+      <c r="A92" s="47"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="51"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="47"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="51"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="47"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="51"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="47"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="51"/>
-      <c r="B96" s="37"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="51"/>
-      <c r="B97" s="37"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="51"/>
-      <c r="B98" s="37"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="51"/>
-      <c r="B99" s="37"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="51"/>
-      <c r="B100" s="37"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="51"/>
-      <c r="B101" s="37"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="51"/>
-      <c r="B102" s="37"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="51"/>
-      <c r="B103" s="37"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="51"/>
-      <c r="B104" s="37"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="51"/>
-      <c r="B105" s="37"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="51"/>
-      <c r="B106" s="37"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="51"/>
-      <c r="B107" s="37"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="51"/>
-      <c r="B108" s="37"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="51"/>
-      <c r="B109" s="37"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="51"/>
-      <c r="B110" s="37"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="51"/>
-      <c r="B111" s="37"/>
+      <c r="A96" s="47"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="47"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="47"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="47"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="47"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="47"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="47"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="47"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="47"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="47"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="47"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="47"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="47"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="47"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="47"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="47"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="47"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F87 F89:F1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18117F6-A185-493C-BD06-78633BFFA252}">
+  <dimension ref="A1:N88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I10" si="0">F2*0.8</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J10" si="1">F2*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K2" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L2" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="N2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K3" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L3" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>446</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>12.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K4" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L4" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>448</v>
+      </c>
+      <c r="N4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="K5" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L5" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="N5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K6" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L6" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K7" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L7" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M7" t="s">
+        <v>454</v>
+      </c>
+      <c r="N7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L8" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K9" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L9" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>458</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="37">
+        <v>17</v>
+      </c>
+      <c r="E10" s="37">
+        <v>18</v>
+      </c>
+      <c r="F10" s="37">
+        <v>400</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>577</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="K10" s="54">
+        <v>42736</v>
+      </c>
+      <c r="L10" s="54">
+        <v>43101</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I11">
+        <f>F11 *0.9</f>
+        <v>0.27</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J17" si="2">F11*1.1</f>
+        <v>0.33</v>
+      </c>
+      <c r="K11" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L11" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I17" si="3">F12*0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L12" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M12" t="s">
+        <v>464</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K13" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L13" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>466</v>
+      </c>
+      <c r="N13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K14" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L14" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="N14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="K15" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L15" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>470</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="K16" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L16" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M16" t="s">
+        <v>472</v>
+      </c>
+      <c r="N16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="K17" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L17" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="N17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="I18">
+        <f>F18*2/3</f>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f>F18*4/3</f>
+        <v>4</v>
+      </c>
+      <c r="K18" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L18" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M18" t="s">
+        <v>476</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="B19" s="37">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="37">
+        <v>35</v>
+      </c>
+      <c r="E19" s="37">
+        <v>36</v>
+      </c>
+      <c r="F19" s="37">
+        <v>168</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="I19" s="37">
+        <f>F19*0.9</f>
+        <v>151.20000000000002</v>
+      </c>
+      <c r="J19" s="37">
+        <f>F19*1.1</f>
+        <v>184.8</v>
+      </c>
+      <c r="K19" s="54">
+        <v>42736</v>
+      </c>
+      <c r="L19" s="54">
+        <v>43101</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I20">
+        <f>F20*0.8</f>
+        <v>0.8</v>
+      </c>
+      <c r="J20">
+        <f>F20*1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="K20" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L20" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>589</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I21">
+        <f>F21*0.8</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="J21">
+        <f>F21*1.2</f>
+        <v>0.12</v>
+      </c>
+      <c r="K21" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L21" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M21" t="s">
+        <v>482</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I22">
+        <f>F22*0.8</f>
+        <v>2.8800000000000002E-5</v>
+      </c>
+      <c r="J22">
+        <f>F22*1.2</f>
+        <v>4.32E-5</v>
+      </c>
+      <c r="K22" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L22" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M22" t="s">
+        <v>484</v>
+      </c>
+      <c r="N22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I23">
+        <f>F23*0.8</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="J23">
+        <f>F23*1.2</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="K23" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L23" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>421</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="I24">
+        <f>F24-0.01</f>
+        <v>-0.01</v>
+      </c>
+      <c r="J24">
+        <f>F24+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L24" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M24" t="s">
+        <v>488</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>2650</v>
+      </c>
+      <c r="G25" t="s">
+        <v>422</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I32" si="4">F25*0.8</f>
+        <v>2120</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J32" si="5">F25*1.2</f>
+        <v>3180</v>
+      </c>
+      <c r="K25" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L25" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M25" t="s">
+        <v>490</v>
+      </c>
+      <c r="N25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>0.65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="K26" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L26" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="N26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>589</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>4600000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>3680000</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>5520000</v>
+      </c>
+      <c r="K27" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L27" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M27" t="s">
+        <v>494</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>589</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>7000000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>423</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>5600000</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>8400000</v>
+      </c>
+      <c r="K28" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L28" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M28" t="s">
+        <v>496</v>
+      </c>
+      <c r="N28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
+      </c>
+      <c r="F29">
+        <v>2.7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>2.16</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="K29" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L29" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="N29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>58</v>
+      </c>
+      <c r="F30">
+        <v>0.6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.72</v>
+      </c>
+      <c r="K30" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L30" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M30" t="s">
+        <v>500</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="44" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>589</v>
+      </c>
+      <c r="D31">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>334000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>425</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>267200</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>400800</v>
+      </c>
+      <c r="K31" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L31" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M31" t="s">
+        <v>502</v>
+      </c>
+      <c r="N31" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>624</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D32">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="K32" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L32" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="N32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>64</v>
+      </c>
+      <c r="F33">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="G33" t="s">
+        <v>426</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="I33">
+        <f>F33*0.99</f>
+        <v>270.41849999999999</v>
+      </c>
+      <c r="J33">
+        <f>F33*1.01</f>
+        <v>275.88149999999996</v>
+      </c>
+      <c r="K33" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L33" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M33" t="s">
+        <v>506</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>589</v>
+      </c>
+      <c r="D34">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>427</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I34">
+        <f>F34*0.8</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="J34">
+        <f>F34*1.2</f>
+        <v>0.03</v>
+      </c>
+      <c r="K34" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L34" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M34" t="s">
+        <v>508</v>
+      </c>
+      <c r="N34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="B35" s="37">
+        <v>1</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="37">
+        <v>67</v>
+      </c>
+      <c r="E35" s="37">
+        <v>68</v>
+      </c>
+      <c r="F35" s="37">
+        <v>70.13</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="H35" s="74" t="s">
+        <v>582</v>
+      </c>
+      <c r="I35" s="37">
+        <f>F35*0.95</f>
+        <v>66.623499999999993</v>
+      </c>
+      <c r="J35" s="37">
+        <f>F35*1.05</f>
+        <v>73.636499999999998</v>
+      </c>
+      <c r="K35" s="54">
+        <v>42736</v>
+      </c>
+      <c r="L35" s="54">
+        <v>43101</v>
+      </c>
+      <c r="M35" s="77" t="s">
+        <v>510</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>628</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="K36" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L36" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M36" t="s">
+        <v>512</v>
+      </c>
+      <c r="N36" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K37" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L37" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M37" t="s">
+        <v>514</v>
+      </c>
+      <c r="N37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" s="37">
+        <v>2</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" s="37">
+        <v>5</v>
+      </c>
+      <c r="E38" s="37">
+        <v>6</v>
+      </c>
+      <c r="F38" s="37">
+        <v>1</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="I38" s="74" t="s">
+        <v>547</v>
+      </c>
+      <c r="J38" s="74" t="s">
+        <v>548</v>
+      </c>
+      <c r="K38" s="54">
+        <v>42736</v>
+      </c>
+      <c r="L38" s="54">
+        <v>43101</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K39" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L39" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M39" t="s">
+        <v>518</v>
+      </c>
+      <c r="N39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K40" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L40" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M40" t="s">
+        <v>520</v>
+      </c>
+      <c r="N40" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>591</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K41" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L41" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M41" t="s">
+        <v>522</v>
+      </c>
+      <c r="N41" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>635</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>591</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="K42" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L42" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M42" t="s">
+        <v>524</v>
+      </c>
+      <c r="N42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>634</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>591</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="K43" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L43" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M43" t="s">
+        <v>526</v>
+      </c>
+      <c r="N43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B44" s="37">
+        <v>2</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="D44" s="37">
+        <v>17</v>
+      </c>
+      <c r="E44" s="37">
+        <v>18</v>
+      </c>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="K44" s="54">
+        <v>42736</v>
+      </c>
+      <c r="L44" s="54">
+        <v>43101</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>592</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L45" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M45" t="s">
+        <v>528</v>
+      </c>
+      <c r="N45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>592</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="31">
+        <v>42736</v>
+      </c>
+      <c r="L46" s="31">
+        <v>43101</v>
+      </c>
+      <c r="M46" t="s">
+        <v>529</v>
+      </c>
+      <c r="N46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="75"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="75"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:J35 J37:J46 G56 G58 G60 G62 G64 G66 G68 G70 G74 G76 G84 G86 F91:F1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>
     </cfRule>
@@ -9521,6 +11941,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1775" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9232D7B0-8586-4E2F-B853-42F36A0EB377}"/>
+  <xr:revisionPtr revIDLastSave="1781" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB2B42E-D369-4C71-BEC3-D79B1338976A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="636">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -2913,6 +2913,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -9760,8 +9764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18117F6-A185-493C-BD06-78633BFFA252}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11802,8 +11806,8 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>435</v>
       </c>
       <c r="G45" t="s">
         <v>172</v>
@@ -11811,11 +11815,11 @@
       <c r="H45">
         <v>-1</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="I45" t="s">
+        <v>436</v>
+      </c>
+      <c r="J45" t="s">
+        <v>436</v>
       </c>
       <c r="K45" s="31">
         <v>42736</v>
@@ -11846,8 +11850,8 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>435</v>
       </c>
       <c r="G46" t="s">
         <v>172</v>
@@ -11855,11 +11859,11 @@
       <c r="H46">
         <v>-1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="I46" t="s">
+        <v>436</v>
+      </c>
+      <c r="J46" t="s">
+        <v>436</v>
       </c>
       <c r="K46" s="31">
         <v>42736</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1781" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB2B42E-D369-4C71-BEC3-D79B1338976A}"/>
+  <xr:revisionPtr revIDLastSave="1783" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC15AB6-44AD-44F0-AD64-1119C090716E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="637">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -1955,6 +1955,9 @@
   </si>
   <si>
     <t>Sea temperature</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -2913,10 +2916,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -9764,8 +9763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18117F6-A185-493C-BD06-78633BFFA252}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10767,21 +10766,22 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>3.6000000000000001E-5</v>
+        <f>0.000036 * 10^3</f>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>636</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>577</v>
       </c>
       <c r="I22">
         <f>F22*0.8</f>
-        <v>2.8800000000000002E-5</v>
+        <v>2.8800000000000006E-2</v>
       </c>
       <c r="J22">
         <f>F22*1.2</f>
-        <v>4.32E-5</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="K22" s="31">
         <v>42736</v>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1783" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC15AB6-44AD-44F0-AD64-1119C090716E}"/>
+  <xr:revisionPtr revIDLastSave="1813" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDB71AD-D6E4-490D-B2FD-96443E9E0461}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="639">
   <si>
     <t>run_id;t_start;t_end;description;;;;;;;;;;</t>
   </si>
@@ -1882,9 +1882,6 @@
     <t>Maximum depth thermal module</t>
   </si>
   <si>
-    <t>Thaw threshold</t>
-  </si>
-  <si>
     <t>Inter-storm XBeach activatinos</t>
   </si>
   <si>
@@ -1958,6 +1955,15 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>*0.8</t>
+  </si>
+  <si>
+    <t>*1.2</t>
+  </si>
+  <si>
+    <t>Thaw depth</t>
   </si>
 </sst>
 </file>
@@ -2916,6 +2922,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
@@ -3687,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D62850-41A0-483E-B58F-AB9686CF6265}">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E113" sqref="E111:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9763,8 +9773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18117F6-A185-493C-BD06-78633BFFA252}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9892,7 +9902,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="s">
         <v>172</v>
@@ -9902,11 +9912,11 @@
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="31">
         <v>42736</v>
@@ -10266,15 +10276,15 @@
         <v>172</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11">
-        <f>F11 *0.9</f>
-        <v>0.27</v>
+        <f>F11*0.8</f>
+        <v>0.24</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J17" si="2">F11*1.1</f>
-        <v>0.33</v>
+        <f>F11*1.2</f>
+        <v>0.36</v>
       </c>
       <c r="K11" s="31">
         <v>42736</v>
@@ -10312,15 +10322,15 @@
         <v>401</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I17" si="3">F12*0.9</f>
-        <v>0.9</v>
+        <f>F12*0.8</f>
+        <v>0.8</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" ref="J12:J17" si="2">F12*1.2</f>
+        <v>1.2</v>
       </c>
       <c r="K12" s="31">
         <v>42736</v>
@@ -10358,15 +10368,15 @@
         <v>172</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
+        <f t="shared" ref="I13:I17" si="3">F13*0.8</f>
+        <v>0.8</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="K13" s="31">
         <v>42736</v>
@@ -10404,15 +10414,15 @@
         <v>402</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14" s="31">
         <v>42736</v>
@@ -10450,15 +10460,15 @@
         <v>403</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15" s="31">
         <v>42736</v>
@@ -10496,15 +10506,15 @@
         <v>404</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" s="31">
         <v>42736</v>
@@ -10542,15 +10552,15 @@
         <v>401</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="K17" s="31">
         <v>42736</v>
@@ -10567,7 +10577,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10613,7 +10623,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B19" s="37">
         <v>1</v>
@@ -10633,16 +10643,16 @@
       <c r="G19" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>578</v>
+      <c r="H19" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="I19" s="37">
-        <f>F19*0.9</f>
-        <v>151.20000000000002</v>
+        <f>F19*0.8</f>
+        <v>134.4</v>
       </c>
       <c r="J19" s="37">
-        <f>F19*1.1</f>
-        <v>184.8</v>
+        <f>F19*1.2</f>
+        <v>201.6</v>
       </c>
       <c r="K19" s="54">
         <v>42736</v>
@@ -10659,7 +10669,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10674,7 +10684,7 @@
         <v>38</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G20" t="s">
         <v>172</v>
@@ -10684,11 +10694,11 @@
       </c>
       <c r="I20">
         <f>F20*0.8</f>
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="J20">
         <f>F20*1.2</f>
-        <v>1.2</v>
+        <v>0.72</v>
       </c>
       <c r="K20" s="31">
         <v>42736</v>
@@ -10705,7 +10715,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -10770,7 +10780,7 @@
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>577</v>
@@ -10798,7 +10808,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -10844,7 +10854,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -10890,7 +10900,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -10936,7 +10946,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10982,7 +10992,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11028,7 +11038,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11074,7 +11084,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11120,7 +11130,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11166,7 +11176,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -11212,7 +11222,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11258,7 +11268,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -11304,7 +11314,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -11350,7 +11360,7 @@
     </row>
     <row r="35" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B35" s="37">
         <v>1</v>
@@ -11396,7 +11406,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -11440,7 +11450,7 @@
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -11464,10 +11474,10 @@
         <v>578</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K37" s="31">
         <v>42736</v>
@@ -11484,7 +11494,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B38" s="37">
         <v>2</v>
@@ -11507,11 +11517,11 @@
       <c r="H38" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="I38" s="74" t="s">
-        <v>547</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>548</v>
+      <c r="I38" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="K38" s="54">
         <v>42736</v>
@@ -11528,7 +11538,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -11552,10 +11562,10 @@
         <v>578</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K39" s="31">
         <v>42736</v>
@@ -11572,7 +11582,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -11596,10 +11606,10 @@
         <v>578</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K40" s="31">
         <v>42736</v>
@@ -11616,7 +11626,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -11640,10 +11650,10 @@
         <v>578</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K41" s="31">
         <v>42736</v>
@@ -11660,7 +11670,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -11704,7 +11714,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11771,11 +11781,11 @@
       <c r="H44" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="I44" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>548</v>
+      <c r="I44" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="K44" s="54">
         <v>42736</v>
@@ -11936,6 +11946,7 @@
       <c r="I88" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J1:J35 J37:J46 G56 G58 G60 G62 G64 G66 G68 G70 G74 G76 G84 G86 F91:F1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",F1)))</formula>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/kevin_debruijn_deltares_nl/Documents/Documents/GitHub/thermo-morphological-model/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1813" documentId="8_{908CDBBE-D5FF-437E-999C-B60338ED9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDB71AD-D6E4-490D-B2FD-96443E9E0461}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D102F72F-BED2-4838-A43F-11C372F8A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs1" sheetId="1" r:id="rId1"/>
     <sheet name="overview_runs2" sheetId="2" r:id="rId2"/>
     <sheet name="overview_runs_sensitivity" sheetId="3" r:id="rId3"/>
-    <sheet name="csv sa" sheetId="4" r:id="rId4"/>
+    <sheet name="overview_sa" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">overview_runs2!$A$1:$N$64</definedName>
@@ -9773,8 +9773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18117F6-A185-493C-BD06-78633BFFA252}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/runs/overview_runs.xlsx
+++ b/runs/overview_runs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D102F72F-BED2-4838-A43F-11C372F8A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{A1C3D725-75B5-40E1-AC6A-8CD997986826}"/>
   </bookViews>
   <sheets>
     <sheet name="overview_runs1" sheetId="1" r:id="rId1"/>
@@ -2922,10 +2922,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EA789A0F-FC33-41D6-9D5F-972A081B4FAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
